--- a/ts910/data.xlsx
+++ b/ts910/data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\c#\ts910\ts910\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CDD39B-AA1C-4312-B52E-FB1FF4CBE46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,13 +24,27 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t xml:space="preserve">new </t>
+  </si>
+  <si>
+    <t xml:space="preserve">test </t>
+  </si>
+  <si>
+    <t>haha</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -330,13 +350,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ts910/data.xlsx
+++ b/ts910/data.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\c#\ts910\ts910\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oanhhh\c#\ts910\ts910\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CDD39B-AA1C-4312-B52E-FB1FF4CBE46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12460"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tài khoản" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,26 +25,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t xml:space="preserve">new </t>
-  </si>
-  <si>
-    <t xml:space="preserve">test </t>
-  </si>
-  <si>
-    <t>haha</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>HỌ TÊN</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>ĐỊA CHỈ</t>
+  </si>
+  <si>
+    <t>AVATAR</t>
+  </si>
+  <si>
+    <t>MẬT KHẨU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -350,27 +359,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ts910/data.xlsx
+++ b/ts910/data.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Tài khoản" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
@@ -43,6 +43,15 @@
   </si>
   <si>
     <t>MẬT KHẨU</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -360,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
@@ -386,6 +395,20 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/ts910/data.xlsx
+++ b/ts910/data.xlsx
@@ -1,31 +1,606 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oanhhh\c#\ts910\ts910\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NGUYEN PHUONG LAN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5C2A1B-4720-4A17-8FE1-30484CF2613F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12460"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tài khoản" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Trường thường" sheetId="1" r:id="rId1"/>
+    <sheet name="Chuyên toán" sheetId="2" r:id="rId2"/>
+    <sheet name="Chuyên văn" sheetId="3" r:id="rId3"/>
+    <sheet name="Tích hợp" sheetId="4" r:id="rId4"/>
+    <sheet name="Tài khoản" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="195">
+  <si>
+    <t>highschoolid</t>
+  </si>
+  <si>
+    <t>highschoolname</t>
+  </si>
+  <si>
+    <t>typeschoolid</t>
+  </si>
+  <si>
+    <t>kindschoolid</t>
+  </si>
+  <si>
+    <t>highlightpoint</t>
+  </si>
+  <si>
+    <t>ratepercent</t>
+  </si>
+  <si>
+    <t>highschooldistance</t>
+  </si>
+  <si>
+    <t>highschooladdresses</t>
+  </si>
+  <si>
+    <t>highschoolseasons</t>
+  </si>
+  <si>
+    <t>highschoolseasonid</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>yeartext</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>fee</t>
+  </si>
+  <si>
+    <t>referencepoint</t>
+  </si>
+  <si>
+    <t>NV1</t>
+  </si>
+  <si>
+    <t>NV2</t>
+  </si>
+  <si>
+    <t>NV3</t>
+  </si>
+  <si>
+    <t>addressdistance</t>
+  </si>
+  <si>
+    <t>yearscore</t>
+  </si>
+  <si>
+    <t>searchadmissionid</t>
+  </si>
+  <si>
+    <t>ischoose</t>
+  </si>
+  <si>
+    <t>maxavg</t>
+  </si>
+  <si>
+    <t>minavg</t>
+  </si>
+  <si>
+    <t>avgpointyear</t>
+  </si>
+  <si>
+    <t>typeadmissionid</t>
+  </si>
+  <si>
+    <t>linkhighschool</t>
+  </si>
+  <si>
+    <t>subjectid</t>
+  </si>
+  <si>
+    <t>THPT Trần Khai Nguyên</t>
+  </si>
+  <si>
+    <t>Đội ngũ giáo viên trường THPT Trần Khai Nguyên được bồi dưỡng liên tục để nâng cao chất lượng giảng dạy. Học sinh được giáo dục toàn diện, bao gồm cả việc nắm vững kiến ​​thức văn hóa và các môn học phát triển ngôn ngữ toàn diện theo chuẩn của Bộ Giáo dục và Đào tạo. Trường có bề dày lịch sử lâu đời về cơ sở vật chất, phong cách giảng dạy và chất lượng giảng dạy để mang đến cho học sinh chương trình giáo dục hiệu quả nhất.
+Ngoài các khóa học thông thường trên lớp, học sinh Trường THPT Trần Khai Nguyên cũng có thể tham gia các hoạt động khác do trường tổ chức để phát triển các kỹ năng và tạo ra một môi trường học tập sôi động. Nhà trường luôn tổ chức các hoạt động ngoại khóa theo tổ bộ môn, mỗi môn học lại mang một màu sắc khác nhau. Học sinh có thể vận dụng khả năng sáng tạo của mình, thi đấu với nhau và học hỏi được nhiều kiến ​​thức mới và thú vị … Tạo môi trường giáo dục và học tập chất lượng cao, đáp ứng yêu cầu hội nhập, ươm mầm những công dân thông minh, dũng cảm, tự tin vào đời.</t>
+  </si>
+  <si>
+    <t>225 Nguyễn Tri Phương,Phường 9,Quận 5</t>
+  </si>
+  <si>
+    <t>2022 - 2023</t>
+  </si>
+  <si>
+    <t>3,000,000</t>
+  </si>
+  <si>
+    <t>https://thpttrankhainguyen.hcm.edu.vn/homegd1</t>
+  </si>
+  <si>
+    <t>THPT Nguyễn An Ninh</t>
+  </si>
+  <si>
+    <t>Trường THPT Nguyễn An Ninh là ngôi trường hình thành từ rất lâu với truyền thống ham học. Trường THPT Nguyễn An Ninh có đội ngũ giáo viên dạy giỏi với nhiều năm kinh nghiệm luôn tận tình với bài giảng của mình. Họ sẽ truyền đạt kiến thức đến các em học sinh một cách dễ hiểu nhất.
+Trong trường được chia thành rất nhiều phòng học với số lượng học sinh đông đảo. Mỗi phòng sẽ có những bộ bàn ghế mới dễ ngồi và đầy đủ trang thiết bị tiện nghi để phục vụ tốt cho quá trình giảng dạy của giáo viên cũng như quá trình học tập của học sinh. Trường cũng đầu tư nhiều về các phòng học chuyên môn có đầy đủ thiết bị hiện đại, phục vụ cho nhiều công việc khác nhau. Khuôn viên của trường cũng được đánh giá cao với không gian thoáng đãng mát mẻ và có nhiều sân chơi giải trí cho các em học sinh sau những giờ làm việc căng thẳng.</t>
+  </si>
+  <si>
+    <t>93 Trần Nhân Tôn,Phường 2,Quận 10</t>
+  </si>
+  <si>
+    <t>https://thptnguyenanninh.hcm.edu.vn/homegd4</t>
+  </si>
+  <si>
+    <t>THCS và THPT Sương Nguyệt Anh</t>
+  </si>
+  <si>
+    <t>Trường được thành lập vào năm 1971 mang tên là Trường Nữ Trung học tổng hợp Sương Nguyệt Anh. Đây là ngôi trường nữ đầu tiên xuất hiện tại Việt Nam. Đặc biệt hơn, trường đi theo phương pháp tổng hợp Trung học Cơ sở và Trung học Phổ thông, áp dụng mô hình giáo dục tân tiến theo các nước trên thế giới lúc bấy giờ. Nhà trường kết hợp việc giảng dạy các môn học thông thường, bên cạnh đó, phát triển thêm mảng kĩ năng sống cho nữ sinh: học làm nữ công gia chánh, may vá, nấu ăn; kế toán đánh máy, âm nhạc, hội họa, nghệ thuật cắm hoa và một số môn võ như Aikido, Vovinam.
+Theo kết quả đánh giá cuối năm niên khóa 2020 – 2021, nhà trường có tất cả 38 lớp học trải dài từ lớp 6 đến lớp 12. Số lượng học sinh đạt và được lên lớp chiếm hơn 99%, trong đó học sinh đạt loại Giỏi, Khá chiếm hơn 70% số lượng học sinh toàn trường. Nhà trường luôn tự hào vì một số bạn học sinh tham gia và có thành tích tốt trong các kỳ thi quốc gia, học sinh giỏi cấp Thành phố, cấp Quận/huyện.</t>
+  </si>
+  <si>
+    <t>249 Hòa Hảo,Phường 3,Quận 10</t>
+  </si>
+  <si>
+    <t>https://thptsuongnguyetanh.hcm.edu.vn/homegd3</t>
+  </si>
+  <si>
+    <t>THPT Hùng Vương</t>
+  </si>
+  <si>
+    <t>Trường có đội ngũ cán bộ quản lý và giáo viên được đào tạo cơ bản, có kinh nghiệm, tâm huyết với ngành. Lãnh đạo nhà trường luôn quan tâm đến công tác xây dựng, củng cố khối đoàn kết cấp thôn, bản, tăng cường xây dựng đội ngũ cán bộ, nhân viên, nâng cao ý thức tổ chức kỷ luật và chất lượng giảng dạy của giáo viên. 
+Tại đây, lớp học sẽ được phân chia theo mô hình lớp chọn và lớp đại trà. Ngoài các khóa đào tạo chính, sinh viên còn có thể được đào tạo theo yêu cầu hoặc tham gia các khóa học năng động và thiết thực để đảm bảo đạt được các mục tiêu mà nhà trường đề ra.</t>
+  </si>
+  <si>
+    <t>124 Hồng Bàng,Phường 12,Quận 5</t>
+  </si>
+  <si>
+    <t>https://thpthungvuong.hcm.edu.vn/homegd3</t>
+  </si>
+  <si>
+    <t>THPT Trần Hữu Trang</t>
+  </si>
+  <si>
+    <t>Chương trình đào tạo tại trường theo đúng chuẩn chương trình tiêu chuẩn của Bộ. Bên cạnh đó, Ban giám hiệu nhà trường và tập thể GV còn nâng cao chất lượng giảng dạy bằng ứng dụng CNTT. Những phương pháp phương pháp tự học, chủ động sáng tạo cũng được giáo viên nhà trường rất quan tâm. 
+Để giúp học sinh phát triển toàn diện, nhà trường cùng thường xuyên tổ chức các hoạt động ngoại khóa như: Hoạt động hội thao, Hoạt động sinh hoạt truyền thống, Hoạt động dã ngoại tham quan, Các hoạt động chuyên đề: Kỹ năng sử dụng mạng xã hội, Tuyên truyền phòng chống và nhận biết các loại ma túy, Giáo dục giới tính và sức khỏe sinh sản vị thành niên, Nói không với bạo lực học đường, Tư duy thời đại số, Xác định mục tiêu cuộc đời,…
+Trong nhiều năm liền, THPT Trần Hữu Trang luôn đạt tỉ lệ tốt nghiệp cấp 3 cao hơn tỉ lệ tốt nghiệp trung bình của thành phố Hồ Chí Minh. Bên cạnh đó, học sinh của trường cũng đạt nhiều thành tích cao trong cuộc thi học sinh giỏi cấp quận và thành phố.</t>
+  </si>
+  <si>
+    <t>276 Trần Hưng Đạo,Phường 11,Quận 5</t>
+  </si>
+  <si>
+    <t>https://thpttranhuutrang.hcm.edu.vn/homegd3</t>
+  </si>
+  <si>
+    <t>THPT Nguyễn Khuyến</t>
+  </si>
+  <si>
+    <t>Trường THCS – THPT Nguyễn Khuyến sở hữu đội ngũ giáo viên tận tình cùng  giáo án và phương pháp giảng dạy hay, dễ hiểu, phát triển tư duy cho học sinh. Đó là một điểm cộng vô cùng lớn giúp cho trường luôn nằm trong “top” chất lượng đầu ra. Tại trường, phong trào văn nghệ và các hoạt động ngoại khóa luôn xen kẽ với việc học như trại truyền thống, trại chào mừng học sinh lớp 10, trại xuân,…
+Trường còn sở hữu cho mình một khoảng sân với những cây xanh um tùm mát mẻ để học sinh có thể ngồi ghế đá trò chuyện sau những giờ học căng thẳng. Ngoài ra cơ sở vật chất tại đây cũng được đầu tư và trang bị đầy đủ nhằm đáp ứng mọi nhu cầu học tập và rèn luyện thể chất cho học sinh.</t>
+  </si>
+  <si>
+    <t>50 Thành Thái,Phường 12,Quận 10</t>
+  </si>
+  <si>
+    <t>https://thptnguyenkhuyen.hcm.edu.vn/homegd3</t>
+  </si>
+  <si>
+    <t>THCS và THPT Diên Hồng</t>
+  </si>
+  <si>
+    <t>Trường THCS- THPT Diên Hồng với chất lượng đào tạo tuyệt vời. Với lịch sử hình thành lâu đời cùng môi trường sư phạm thân thiện, gần gũi giúp trường dần khẳng định vị thế của mình trong hệ thống giáo dục THCS- THPT. 
+Đội ngũ giáo viên chuyên môn cao với nhiều năm kinh nghiệm luôn tận tâm trong công cuộc trồng người. Cán bộ, giáo viên nhà trường luôn ý thức nâng cao trình độ chuyên môn và xu hướng dạy học trong thời đại mới. Trường THCS- THPT Diên Hồng đã xây dựng môi trường sư phạm thân thiện, gắn bó, thầy dạy tốt, trò học tốt.
+Với môi trường đào tạo tuyệt vời bên cạnh đó là cơ sở vật chất hiện đại tạo điều kiện tốt nhất trong học tập cho học sinh nhà trường. Ngoài những giờ học trên lớp, nhà trường thường xuyên tổ chức những tiết học tham quan ngoại khóa và các cuộc thi thể thao dành giúp học sinh rèn luyện thể chất cũng như là những kỹ năng mềm cần thiết cho hành trang tương lai của các em. Bên cạnh đó là những buổi hướng nghiệp cho học sinh được nhà trường tổ chức để giúp học sinh định hướng nghề nghiệp trong thời đại kỷ nguyên số.</t>
+  </si>
+  <si>
+    <t>11 Thành Thái,Phường 14,Quận 10</t>
+  </si>
+  <si>
+    <t>https://thptdienhong.hcm.edu.vn/homegd5</t>
+  </si>
+  <si>
+    <t>THPT Lương Văn Can</t>
+  </si>
+  <si>
+    <t>Trường THPT Lương Văn Can một trong những ngôi trường công lập danh tiếng tại T.P Hồ Chí Minh. Đây là 1 trong số ít trường THPT có tư duy hiện đại khi kết hợp các phương pháp dạy học truyền thống với hiện đại và hợp tác với  nước ngoài. Trường nhiều năm liền luôn đứng trong top các trường có điểm thi đại học cao trong cả nước. Trường có nhiều học sinh tham gia kỳ thi các cấp và giành nhiều giải thưởng lớn.
+Trường THPT Lương Văn Can được đánh giá là trường có cơ sở vật chất đầy đủ và hiện đại. Cơ sở vật chất của trường đáp ứng được những yêu cầu khắt khe của Bộ GD&amp;ĐT tất cả đều được trường đầu tư mạnh mẽ.  Phòng chức năng được đầu tư lớn: Bên cạnh việc đầu tư cho phòng học, trường còn chú trọng tới các phòng thực hành, thư viện, phòng thí nghiệm, khu hội trường rộng rãi, khu thể chất, phòng y tế, nhà ăn…</t>
+  </si>
+  <si>
+    <t>173 Phạm Hùng,Phường 4,Quận 8</t>
+  </si>
+  <si>
+    <t>https://thptluongvancan.hcm.edu.vn/homegd3</t>
+  </si>
+  <si>
+    <t>THPT Bùi Thị Xuân</t>
+  </si>
+  <si>
+    <t>Nhà trường ghi dấu ấn mạnh mẽ về thành tích tốt nghiệp, là trường THPT duy nhất tại Thành phố Hồ Chí Minh 17 năm liền có tỷ lệ học sinh tốt nghiệp cao. Nhiều năm liên tục, 100% HS của trường đỗ vào các trường ĐH có uy tín.
+Bên cạnh chương trình đào tạo chính khóa, nhà trường cũng rất quan tâm đến các hoạt động ngoại khóa để học sinh được phát triển một cách toàn diện văn - thể - mỹ. Nhà trường tổ chức nhiều CLB hoạt động hiệu quả và thu hút đông đảo học sinh tham gia. Đồng thời, nhà trường cũng thường xuyên tổ chức các hoạt động học tập cho học sinh ở bên ngoài nhà trường, qua đó giúp các em trải nghiệm, nắm bắt thực tiễn và biết vận dụng kiến thức đã học vào cuộc sống hàng ngày.
+Trong năm học vừa qua, nhà trường cũng đã mở các lớp giáo dục kĩ năng sống cho học sinh cả 3 khối. Với tầm nhìn tiếng Anh là ngôn ngữ giao tiếp quốc tế và học tập, nghiên cứu khoa học. Học sinh sẽ được học một trong các ngoại ngữ Đức, Hàn, Nhật, Trung, Pháp hoặc học Toán, Khoa học tự nhiên bằng tiếng Anh.</t>
+  </si>
+  <si>
+    <t>73 Bùi Thị Xuân,P.Phạm Ngũ Lão,Quận 1</t>
+  </si>
+  <si>
+    <t>https://thptbuithixuan.hcm.edu.vn/homegd3</t>
+  </si>
+  <si>
+    <t>THPT Lương Thế Vinh</t>
+  </si>
+  <si>
+    <t>THPT Lương Thế Vinh là một ngôi trường năng động sáng tạo, luôn tiên phong trong các hoạt động đổi mới, sẽ chào đón bạn với những cơ hội lựa chọn học tập rộng mở! 
+Có cơ hội học các môn lựa chọn phù hợp với xu thế của xã hội hiện đại và cả những tiết học ngôn ngữ, năng khiếu, mở rộng cho bạn cơ hội theo đuổi nhiều ngành nghề trong tương lai
+Các hoạt động nghiên cứu khoa học, sinh hoạt Câu lạc bộ, chương trình ngoại khóa, các chuyến trải nghiệm tích hợp liên môn và các chuyên đề giáo dục kĩ năng sống - giá trị sống vô cùng thú vị, bổ ích</t>
+  </si>
+  <si>
+    <t>131 Cô Bắc,P.Cô Giang,Quận 1</t>
+  </si>
+  <si>
+    <t>https://thptluongthevinh.hcm.edu.vn/homegd3</t>
+  </si>
+  <si>
+    <t>THPT Võ Văn Kiệt</t>
+  </si>
+  <si>
+    <t>Trường THPT Võ Văn Kiệt đã tập trung nâng cao chất lượng giảng dạy và học, đổi mới phương pháp và hướng trọng tâm vào đối tượng học sinh. Trong đó, nhà trường đẩy mạnh việc ứng dụng công nghệ thông tin vào hoạt động dạy và học; phát huy năng lực của giáo viên, gắn với rèn luyện tính tự giác của học sinh; thực hiện nghiêm quy chế thi, kiểm tra; gắn giáo dục toàn diện với bồi dưỡng chuyên sâu. Nhờ vậy, liên tục trong nhiều năm học qua, trường THPT Võ Văn Kiệt đã thực hiện có hiệu quả phong trào thi đua "Dạy tốt - học tốt". Học sinh trường đã đạt rất nhiều cao trong các kỳ thi học sinh giỏi lớp 12 cấp Thành phố, thi Olympic tháng 4 và học sinh nghiên cứu khoa học.  Các em được trang bị đầy đủ tri thức, kỹ năng để dự thi Học sinh giỏi, các cuộc thi nghiên cứu khoa học, thi đậu vào nhiều trường Đại học có uy tín của thành phố theo thiên hướng, sở thích, sở trường của từng em.</t>
+  </si>
+  <si>
+    <t>629 Bến Bình Đông,Phường 13,Quận 8</t>
+  </si>
+  <si>
+    <t>https://thptvovankiet.hcm.edu.vn/homegd3</t>
+  </si>
+  <si>
+    <t>THPT Nam Kỳ Khởi Nghĩa</t>
+  </si>
+  <si>
+    <t>Trường sở hữu đội ngũ cán bộ, giáo viên trẻ được đào tạo cơ bản, có năng lực chuyên môn trong việc giảng dạy. Ngoài ra, ngôi trường còn đào tạo ra nhiều học sinh giỏi cấp Thành Phố, Olympic.  
+Nhà trường đã không ngừng cho đội ngũ cán bộ, giáo viên trong trường học tập và nâng cao chuyên môn, rèn luyện nghiệp vụ sư phạm. Bên cạnh đó, nhà trường còn thực hiện công tác bồi dưỡng và rèn luyện phẩm chất đạo đức của cả giáo viên lẫn học sinh đang theo học trong nhà trường. Đối với các em học sinh đang theo học tại nhà trường thì thường xuyên được tham gia vào các hoạt động ngoại khóa, các phong trào thi đua trong nhà trường. Không chỉ vậy, đối với những em học sinh đang đứng trước ngưỡng cửa đại học thì được các thầy cô giáo của nhà trường định hướng trường hoặc nghề nghiệp sau này. Điều này giúp các em học sinh có thể có cái nhìn khách quan hơn về cách cổng Đại Học cũng như lựa chọn nghề nghiệp phù hợp với bản thân trong tương lai.</t>
+  </si>
+  <si>
+    <t>269/8 Nguyễn Thị Nhỏ,Phường 16,Quận 11</t>
+  </si>
+  <si>
+    <t>https://thptnamkykhoinghia.hcm.edu.vn/homegd2</t>
+  </si>
+  <si>
+    <t>THPT Nguyễn Hiền</t>
+  </si>
+  <si>
+    <t>Trường là một trong những trường có thành tích giảng dạy là tỷ lệ dỗ cao vào loại tốt nhất TP.HCM với 48 phòng học &amp; 11 phòng làm việc và 70 giáo viên. Đội ngũ sư phạm nhiệt tình, có tinh thần trách nhiệm cao và chuyên môn vững vàng. Chất lượng đào tạo ngày càng được nâng cao với tỷ lệ tốt nghiệp , tỷ lệ HS khá - giỏi các năm đều tăng, nhiều năm thuộc top cao của thành phố. Hiệu suất đào tạo của trường luôn ổn định ở mức trên 92%. Số lượng học sinh có thành tích cao trong học tập. Tỉ lệ học sinh của trường đậu các trường Đại học, Cao đẳng đạt trên 80% và không ngừng tăng nhanh.</t>
+  </si>
+  <si>
+    <t>03 Dương Đình Nghệ,Phường 8,Quận 11</t>
+  </si>
+  <si>
+    <t>https://thptnguyenhien.hcm.edu.vn/homegd11</t>
+  </si>
+  <si>
+    <t>THPT Ten Lơ Man</t>
+  </si>
+  <si>
+    <t>Trường THPT Ten Lơ Man hiện nay có 91 cán bộ giáo viên, trong đó có nhiều người có trình độ thạc sĩ, là giáo viên giỏi cấp thành phố, đạt danh hiệu Lao động tiên tiến, là Chiến sĩ thi đua cấp cơ sở, cấp thành phố và là tác giả của những sáng kiến kinh nghiệm mang tính thực tiễn cao, được áp dụng hiệu quả trong quản lý và giảng dạy. Bên cạnh đội ngũ thầy hay, giàu tinh thần nhiệt huyết với nghề, là thế hệ học sinh thời đại mới năng động, sáng tạo và hết mình đã tạo nên một nguồn năng lượng mạnh mẽ giúp ngôi trường phát triển, tạo dựng uy tín, vị thế và mang một bản sắc rất riêng.</t>
+  </si>
+  <si>
+    <t>8 Trần Hưng Đạo,P.Phạm Ngũ Lão,Quận 1</t>
+  </si>
+  <si>
+    <t>Đang cập nhật...</t>
+  </si>
+  <si>
+    <t>http://thiduakhenthuongvn.org.vn/chuyen-de/truong-thpt-ten-lo-man-tp-ho-chi-minh-tu-hao-ngoi-truong-70-tuoi-trong-long-thanh-pho-mang</t>
+  </si>
+  <si>
+    <t>THPT Tạ Quang Bửu</t>
+  </si>
+  <si>
+    <t>Trường THPT Tạ Quang Bửu – Hồ Chí Minh có cơ sở vật chất đạt tiêu chuẩn của Bộ. Hệ thống các phòng học, phòng thí nghiệm, phòng thực hành, thư viện đều được trang bị hệ thống thiết bị hiện đại đảm bảo chất lượng dạy và học tốt nhất. Khu giáo dục thể chất có khuôn viên rộng giúp nâng cao, rèn luyện thể lực cho học sinh. Khuôn viên trường rộng rãi có thêm các khu dành cho các câu lạc bộ cho học sinh. Việc bày tạo điều kiện cho các em sinh hoạt ngoại khóa và giải trí lành mạnh.
+Trường có chủ trương kết hợp phương pháp truyền thống với phương pháp hiện đại trong mọi bài giảng. Sự kết hợp chương trình giáo dục truyền thống và hiện đại sẽ giúp học sinh hội nhập toàn cầu trong tương lai. Nâng cao các kỹ năng làm việc nhóm, thuyết trình, lập kế hoạch luôn được nhà trường lồng ghép vào chương trình đào tạo cơ bản. Nhà trường có phân chia thành các lớp học cơ bản và nâng cao theo nguyện vọng của học sinh. Song song với chương trình đào tạo, các hoạt động ngoại khóa cũng được nhà trường hết sức quan tâm. Các câu lạc bộ năng khiếu về ngôn ngữ, nghệ thuật, thể thao được nhà trường cho phép học sinh chủ động điều hành.</t>
+  </si>
+  <si>
+    <t>909 Tạ Quang Bửu,Phường 5,Quận 8</t>
+  </si>
+  <si>
+    <t>https://thpttaquangbuu.hcm.edu.vn/homegd3</t>
+  </si>
+  <si>
+    <t>THPT Nguyễn Thị Minh Khai</t>
+  </si>
+  <si>
+    <t>Trường THPT Nguyễn Thị Minh Khai tại Tp. Hồ Chí Minh được thành lập từ năm 1913. Tiền thân của ngôi trường này trước kia có tên là Trường nữ Gia Long hay Trường nữ sinh Áo Tím. 
+Trường được áp dụng nhiều phương pháp giáo dục tiên tiến, các môn học đều được đầu tư các trang thiết bị hiện đại cùng nội dung phong phú. Một số môn học còn được thực hành ngay tại trường giúp các em nắm chắc kiến thức, mở rộng tư duy ra nhiều hướng khác nhau trong cùng một vấn đề. Chính vì thế, ngôi trường này có tỷ lệ học sinh đạt điểm sàn Đại học là 97.7%. Trong đó, có khoảng 85.5% học sinh đậu bậc Đại học và Cao đẳng.</t>
+  </si>
+  <si>
+    <t>275 Điện Biên Phủ,P.Võ Thi Sáu,Quận 3</t>
+  </si>
+  <si>
+    <t>https://thptnguyenthiminhkhai.hcm.edu.vn/homegd3</t>
+  </si>
+  <si>
+    <t>THPT Phạm Phú Thứ</t>
+  </si>
+  <si>
+    <t>Trường THPT Phạm Phú Thứ được khởi công xây dựng giai đoạn 1 từ tháng 12/2015, với tổng kinh phí gần 190 tỷ đồng. Trường có diện tích 8.151m2 gồm 37 phòng học và đầy đủ các phòng chức năng như vi tính, thí nghiệm,… Riêng giai đoạn 2, trường xây dựng nhà thi đấu đa năng, dự kiến sẽ hoàn thành và đưa vào sử dụng năm học 2018-2019… đáp ứng phục vụ cho 1.600 học sinh và 100 giáo viên.</t>
+  </si>
+  <si>
+    <t>435 Gia Phú,Phường 3,Quận 6</t>
+  </si>
+  <si>
+    <t>http://phamphuthu.com/</t>
+  </si>
+  <si>
+    <t>THPT Marie Curie</t>
+  </si>
+  <si>
+    <t>Trường THPT Marie-Curie được đánh giá cao về môi trường học tập tốt và đội ngũ giảng viên chuyên nghiệp. Tại đây có đội ngũ giáo viên có đầy đủ kinh nghiệm để giúp các học sinh có thể tiếp thu kiến thức nhanh chóng. Các giáo viên đều rất tâm huyết trong việc đào tạo và bồi dưỡng học sinh giỏi các năm. Môi trường học tập vô cùng thoải mái, có đầy đủ tiện nghi, cơ sở vật chất khang trang, hiện đại.
+Không gian trường học được thiết kế đúng tiêu chuẩn quốc tế, hiện đại, sang trọng và đầy đủ tiện nghi. Mọi căn phòng học đến phòng vui chơi cũng đều lắp đặt thiết bị điều hòa. Tại các phòng học thì đều có tủ đồ và bàn ghế riêng cho mỗi học sinh. Phòng ăn được bố trí sạch sẽ, ngăn nắp, có không gian riêng cho từng đối tượng. Ngoài giờ học thì học sinh còn có thể đến các sân chơi như sân piano, vườn trúc, sân bóng… Mọi khu vực đều được bố trí một cách an toàn, thoáng mát và rộng rãi. Nhà trường cũng có các hội trường lớn, nhà thi đấu thể thao, các khán phòng nghệ thuật, thư viện để phục vụ nhu cầu sinh hoạt của mọi người. Ngoài ra còn có rất nhiều tiện nghi khác cũng được các bậc phụ huynh đánh giá cao.</t>
+  </si>
+  <si>
+    <t>159 Nam Kỳ Khởi Nghĩa,P.Võ Thi Sáu,Quận 3</t>
+  </si>
+  <si>
+    <t>https://thptmariecurie.hcm.edu.vn/homegd7</t>
+  </si>
+  <si>
+    <t>THPT Nguyễn Thái Bình</t>
+  </si>
+  <si>
+    <t>Trường trung học phổ thông Nguyễn Thái Bình sở hữu đội ngũ giáo viên chuyên nghiệp, xuất sắc, 100% giáo viên của trường đạt chuẩn, trong đó có 70% giáo viên có trình độ chuyên môn đạt loại khá. Ngoài ra, trường còn có một số giáo viên đạt được danh hiệu chiến sĩ thi đua của các cấp. 
+Trường THPT Nguyễn Thái Bình luôn hướng đến mục tiêu giáo dục các em học sinh trở thành những thanh thiếu niên trí thức ngay khi còn ngồi trên ghế nhà trường. Trường mong muốn các em học sinh trở thành người biết trân trọng bản thân, gia đình và cả những văn hóa dân tộc tốt đẹp của nhân dân ta, đặc biệt là phải trở thành một người có ích cho gia đình và xã hội. Vậy nên ngoài chương trình học chính theo Bộ giáo dục, trường còn tổ chức cho các em học thêm một số các môn năng khiếu khác như: đàn, vẽ, dance,... và mỗi một học sinh sẽ được chọn một môn thể thao yêu thích để học như: bơi, võ, bóng đá,...</t>
+  </si>
+  <si>
+    <t>913-915 Lý Thường Kiệt,Phường 9,Quận Tân Bình</t>
+  </si>
+  <si>
+    <t>https://thptnguyenthaibinh.hcm.edu.vn/homegd7</t>
+  </si>
+  <si>
+    <t>THPT Lê Quý Đôn</t>
+  </si>
+  <si>
+    <t>Trường Trung học Phổ thông Lê Quý Đôn là trường trung học đầu tiên của Sài Gòn, được thành lập năm 1874, với tên gọi ban đầu Collège Chasseloup-Laubat. Ngôi trường này cũng cho ra lò những nhân tài làm nên tên tuổi của Việt Nam như nhà hoạt động cách mạng, nhà khoa học, nhà nghiên cứu lịch sử, triết học và là nhà giáo Việt Nam Trần Văn Giàu. Nguyễn Văn Hưởng, Giáo sư, Bác sĩ vi trùng học và Đông y, Bộ trưởng Bộ Y tế, Ủy viên Đoàn Chủ tịch Ủy ban Trung ương Mặt trận Tổ quốc Việt Nam, Đại biểu Quốc hội khóa I, Phó Chủ tịch Ủy ban Thường vụ Quốc hội khóa II, III. Trịnh Công Sơn, Nhạc sĩ Tân Nhạc nổi tiếng của Việt Nam. Trường có vị trí ngay trung tâm thành phố với môi trường học tập được đầu tư cây xanh mát mẻ bao phủ, cơ sở hạ tầng được chăm chút hiện đại , tổ chức quản lí học sinh và cả giáo viên chặt chẽ, nghiêm khắc tạo nên môi trường học tập theo đúng tiêu chuẩn thành phố đề ra.</t>
+  </si>
+  <si>
+    <t>110 Nguyễn Thị Minh Khai,P.Võ Thi Sáu,Quận 3</t>
+  </si>
+  <si>
+    <t>http://www.thpt-lequydon-hcm.edu.vn/home.aspx</t>
+  </si>
+  <si>
+    <t>THPT Trần Quang Khải</t>
+  </si>
+  <si>
+    <t>Trường Trần Quang Khải được thành lập từ năm 1998. Trải qua những thăng trầm của lịch sử mái trường có những thay đổi về cơ sở vật chất. Với sự đầu tư hiện đại ngày hôm nay có một ngôi trường Trần Quang Khải khang trang, tiện nghi. Tên gọi của nhà trường gắn liền với mộ vị tướng tài ba của dân tộc. Phát huy truyền thống ấy, thầy và trò nhà trường luôn nỗ lực, cố gắng để có được những thành tích cao trong giảng dạy và học tập. 
+Mục tiêu giáo dục xuyên suốt của ngôi trường được bao thế hệ giáo viên hướng tới đó là: “Dạy-Dỗ-Quản”. Sau 14 năm phát triển, trưởng thành chất lượng đào tạo toàn diện không ngừng nâng cao, năm sau cao hơn năm trước với tỷ lệ đỗ tốt nghiệp lớp 12 hàng năm luôn ở mức trên 95%. Tỷ lệ học sinh ra trường học tại các trường đại học, cao đẳng chính quy và không chính quy trên 90%. Tỷ lệ học sinh trường THPT Trần Quang Khải đỗ Đại học, Cao đẳng tăng theo từng năm. Rất nhiều học sinh đỗ vào các trường Đại học top đầu cả nước như: Học viện Báo chí và Tuyên, Học viện Ngân hàng, Đại học Bách Khoa,....</t>
+  </si>
+  <si>
+    <t>343D Lạc Long Quân,Phường 5,Quận 11</t>
+  </si>
+  <si>
+    <t>https://thpttranquangkhai.hcm.edu.vn/homegd3</t>
+  </si>
+  <si>
+    <t>THPT Nguyễn Hữu Thọ</t>
+  </si>
+  <si>
+    <t>Trường THPT Nguyễn Hữu Thọ có vốn đầu tư hơn 162,4 tỷ đồng từ ngân sách Thành phố. Trường có 45 phòng học, nhiều phòng chức năng, trang thiết bị hiện đại, sân tập thể dục thể thao, cây xanh, thảm cỏ... Trường có các phòng chức năng được trang bị đầy đủ các dụng cụ học tập và thực hành thí nghiệm. Ngoài ra, trường còn có các phòng hội họp, phòng hội trường khá lớn nhằm phục vụ các hội nghị của các ban ngành đoàn thể trong Quận và Thành phố. Trường có tầng hầm để xe rộng rãi mà rất ít trường nào trong trung tâm thành phố có được. Trong tương lai gần, trường sẽ có thêm 01 nhà thi đấu TDTT đa năng nhằm giúp cho các em học sinh có môi trường vui chơi, rèn luyện sức khỏe tốt hơn. 
+Trong những năm qua, với số lượng sinh viên đông đảo, tập thể giảng viên của trường đã lập nhiều thành tích trong phong trào “Hai không” và công tác giáo dục chính trị, tư tưởng, đạo đức sinh viên. Học mô phỏng các hoạt động thể dục thể thao, học tốt, đền ơn đáp nghĩa, v.v.</t>
+  </si>
+  <si>
+    <t>2 Bến Vân Đồn,Phường 12,Quận 4</t>
+  </si>
+  <si>
+    <t>https://thptnguyenhuutho.hcm.edu.vn/homegd5</t>
+  </si>
+  <si>
+    <t>THPT Lê Thánh Tôn</t>
+  </si>
+  <si>
+    <t>Trường THPT Lê Thánh Tôn có đội ngũ giáo viên đạt chuẩn và trên chuẩn (68 cử nhân, 20 thạc sỹ) dày dạn kinh nghiệm, hết lòng vì học sinh thân yêu. Trong năm học 2020 - 2021, nhà trường chú trọng việc phụ đạo học sinh yếu và bồi dưỡng học sinh giỏi. Năm học này, Trường tổ chức bồi dưỡng học sinh giỏi và kết quả: Khối lớp 12, giải HS Giỏi cấp thành phố.
+Trong năm học, các học sinh được 4 lần học tập trải nghiệm thực tế do thầy cô ở các tổ bộ môn phối hợp tổ chức: sau khi kiểm tra giữa HKI, HKII, sau khi HKI, HKII và giúp cho các em có được những kiến thức thực tế, được sinh hoạt vui chơi tập thể, tìm hiểu về lịch sử, về địa lý, về văn hóa vùng miền, trải nghiệm 1 ngày là nông dân, 1 ngày là sinh viên đại học,...</t>
+  </si>
+  <si>
+    <t>31A Số 17,P.Tân Quy,Quận 7</t>
+  </si>
+  <si>
+    <t>https://thptlethanhton.hcm.edu.vn/homegd2</t>
+  </si>
+  <si>
+    <t>THPT Nguyễn Tất Thành</t>
+  </si>
+  <si>
+    <t>Trường Nguyễn Tất Thành tham gia nghiên cứu khoa học giáo dục, trước hết là nghiên cứu đổi mới phương pháp dạy học và xây dựng chương trình đào tạo toàn diện nhằm không ngừng nâng cao chất lượng giáo dục học sinh.
+Trường được Bộ Giáo dục và Đào tạo giới thiệu là trường kết nghĩa với trường Anderson Junior College (Singapore). Hàng năm, các trường liên kết của Raffles College và Raffles Girls 'School (trường trung học phổ thông hàng đầu Singapore) nhận học sinh lớp 9 và lớp 10 sang Singapore du học với mức chi trả 100% (học phí, ăn ở, vé máy bay). ). Trường THPT Nguyễn Tất Thành và Trường Singapore hàng năm tổ chức các chuyến thăm lẫn nhau giữa giáo viên và học sinh để trao đổi kinh nghiệm học tập, tăng cường hiểu biết và hợp tác, tham gia các cuộc triển lãm và hội thi. Trường có quan hệ hợp tác với nhiều trường ở New Zealand, Mông Cổ, Nhật Bản và Hồng Kông.</t>
+  </si>
+  <si>
+    <t>249C Nguyễn Văn Luông,Phường 11,Quận 6</t>
+  </si>
+  <si>
+    <t>https://thptnguyentatthanh.hcm.edu.vn/homegd9</t>
+  </si>
+  <si>
+    <t>THPT Nguyễn Trãi</t>
+  </si>
+  <si>
+    <t>Trường THPT Nguyễn Trãi nằm trong hệ thống trường THPT chất lượng cao của Trường Đại học Sư phạm TP. Hồ Chí Minh, có đội ngũ giáo viên khoa học giáo dục và cơ bản chất lượng cao. Trong số đó, nhiều giáo viên giảng dạy tại các trường đại học nổi tiếng như Đại học Sư phạm TP. Hồ Chí Minh, Đại học Ngoại ngữ, Đại học Khoa học Tự nhiên TP. Hồ Chí Minh. Đây là một ngôi trường mà bạn học tốt và chơi tốt. Trường may mắn lọt vào top các trường THPT hàng đầu Việt Nam, đạt tiêu chuẩn quốc tế, đóng góp quan trọng vào sự phát triển của nền kinh tế tri thức toàn cầu. 
+Tất cả các phòng học đều được trang bị các thiết bị hiện đại như máy chiếu, điều hòa nhiệt độ hỗ trợ tích cực cho việc học tập và giảng dạy. Ngoài ra, trường có 3 phòng vẽ được trang bị đầy đủ dụng cụ vẽ… Tích cực phục vụ sinh viên kiến ​​trúc, thiết kế… Phòng dạy thị giác và phòng máy tính đảm bảo đường truyền Internet tốc độ cao. Trường có trung tâm thông tin thư viện với hàng nghìn đầu sách tham khảo nước ngoài, có thể cung cấp dịch vụ cho sinh viên và giảng viên có nhu cầu nghiên cứu.</t>
+  </si>
+  <si>
+    <t>364 Nguyễn Tất Thành,Phường 18,Quận 4</t>
+  </si>
+  <si>
+    <t>https://thptnguyentrai.hcm.edu.vn/homegd3</t>
+  </si>
+  <si>
+    <t>THPT Hàn Thuyên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Với kinh nghiệm 35 năm dạy và học, trường THPT Hàn Thuyên luôn tạo mọi điều kiện tốt nhất để học sinh có thể phát triển bản thân một cách toàn diện từ tri thức đến nhân cách. Cán bộ, giáo viên, công nhân viên lành nghề luôn có ý thức nâng cao trình độ chuyên môn, bắt kịp xu hướng giảng dạy trong thời đại mới. Môi trường sư phạm thân thiện và gần gũi nhưng không kém phần nề nếp. Cùng với việc trường THPT Hàn Thuyên ngày càng nâng cao chất lượng đào tạo nên hằng năm đội tuyển học sinh giỏi của trường luôn gặt hái được những kết quả tốt trong các cuộc thi do thành phố tổ chức. Ngoài học tập, trường tổ chức nhiều câu lạc bộ hoạt động sôi nổi là nơi nuôi dưỡng và phát triển đam mê, sở thích. Nơi học sinh có thể bộc lộ được năng khiếu cá nhân. Môi trường rèn luyện những kỹ năng sống cần thiết cũng như sân chơi lành mạnh, những giờ sinh hoạt ngoại khóa hấp dẫn. </t>
+  </si>
+  <si>
+    <t>37 Đặng Văn Ngữ,Phường 10,Quận Phú Nhuận</t>
+  </si>
+  <si>
+    <t>https://thpthanthuyen.hcm.edu.vn/homegd3</t>
+  </si>
+  <si>
+    <t>THPT Ngô Gia Tự</t>
+  </si>
+  <si>
+    <t>Trường THPT Ngô Gia Tự - Quận 8 - T.P Hồ Chí Minh là cái nôi đã sản sinh và nuôi dưỡng nhiều thế hệ tài năng trẻ cho thủ đô và đất nước. Cũng tại ngôi trường này đã viết lên nhiều thành tựu vang danh cho nền giáo dục nước nhà.  Trường THPT Ngô Gia Tự có tỷ lệ học sinh tốt nghiệp THPT khá cao tới gần 100%. Trong đó có tới hơn 90% tỷ lệ học sinh đủ tiêu chuẩn vào các trường đại học cao đẳng và đủ tiêu chuẩn đi du học. Số học sinh giỏi, xuất sắc hàng năm đạt trên 10%, học sinh khá gần 50%. Các CLB học sinh giỏi của trường hằng năm đều tham dự các kỳ thi cấp thành phố, Quốc Gia. Trường sở hữu đội ngũ giáo viên tiêu chuẩn với những thầy cô giỏi nghiệp vụ, tâm huyết, yêu nghề mến trẻ, luôn tư duy đổi mới. Bên cạnh đó nhà trường cũng thường xuyên cấp cử giáo viên đi học nhằm nâng cao trình độ chuyên môn. Phần lớn các thầy cô đều là giáo viên ưu tú của các trường THPT, các trường Đại học.</t>
+  </si>
+  <si>
+    <t>360E Bến Bình Đông,Phường 15,Quận 8</t>
+  </si>
+  <si>
+    <t>https://thptngogiatu.hcm.edu.vn/homegd3</t>
+  </si>
+  <si>
+    <t>THPT Tân Phong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trường THPT Tân Phong đào tạo học sinh không chỉ học những kiến thức trong sách vở hay trong chương trình học thông thường mà còn được học thêm nhiều kiến thức khác. Ngoài ra, các thầy cô ở trường Tân Phong luôn mong muốn mang đến cho các học sinh những tiết học đa dạng, vui nhộn, sôi nổi và lạnh mạnh, điều đó sẽ giúp các em dễ tiếp thu hơn trong các tiết học. Trường có có rất nhiều các giáo viên đạt danh hiệu giáo viên dạy giỏi cùng với tỷ lệ học sinh tốt nghiệp. Đặc biệt, trường có nhiều học sinh giỏi cấp thành phố của các môn. Tỷ lệ học sinh tốt nghiệp của trường lên đến 99,04%. Tuy điểm đầu vào của trường không cao nhưng chất lượng giảng dạy của trường rất tốt, khi học ở đây học sinh sẽ được các thầy cô quan tâm nhiệt tính, đặc biệt là những học sinh kém, các thầy cô luôn cố gắng giúp các bạn học sinh đạt được thành tích tốt nhất. </t>
+  </si>
+  <si>
+    <t>19 lô F khu định cư, Ven sông,P.Tân Phong,Quận 7</t>
+  </si>
+  <si>
+    <t>https://thpttanphong.hcm.edu.vn/homegd7</t>
+  </si>
+  <si>
+    <t>THPT Võ Thị Sáu</t>
+  </si>
+  <si>
+    <t>Trường THPT Võ Thị Sáu tự hào với chất lượng đào tạo cao. Năm 2013, trường được nhận giấy chứng nhận kiểm định chất lượng cao nhất. Đội tuyển HSG chất lượng gặt hái nhiều thành quả cao trong các cuộc thi do thành phố tổ chức. Tỷ lệ học sinh đậu Đại học - Cao đẳng gần 90% trong đó có nhiều học sinh đậu vào những trường Đại học danh giá.  Trường có hiệu suất đào tạo cao trên 99% và tỉ lệ đậu tốt nghiệp luôn cao hơn tỉ lệ thành phố. Song hành cùng với đó là đội ngũ giáo viên tâm huyết với nghề. Kế hoạch giảng dạy chi tiết, tận tụy nhằm tạo mọi điều kiện hoàn thiện nhân cách và rèn luyện kĩ năng của học sinh. Giáo viên thân thiện, tận tụy, hết lòng vì học sinh: Thầy cô giáo ngày càng trẻ, rất năng động, sáng tạo và nhiệt tình, tận tâm, tận lực cùng đồng hành với học sinh trên con đường tiếp thu kiến thức, rèn luyện các kỹ năng, năng lực cần thiết để có thể vượt qua các thử thách trên con đường đổi mới và hội nhập.</t>
+  </si>
+  <si>
+    <t>95 Lê Văn Duyệt,Phường 3, Quận Bình Thạnh</t>
+  </si>
+  <si>
+    <t>https://thptvothisau.hcm.edu.vn/homegd7</t>
+  </si>
+  <si>
+    <t>THPT Nam Sài Gòn</t>
+  </si>
+  <si>
+    <t>Trường THPT Nam Sài Gòn có nhiều hoạt động chuyên môn đổi mới phương pháp giảng dạy như ngoại khóa, hội thảo, chuyên đề, thao giảng được các tổ chuyên môn đẩy mạnh. Đã tạo nên một không khí, tinh thần học tập hào hứng, đam mê, có hiệu quả. Thành tích gần đây nhất là đã tổ chức thành công hoạt động ngoại khóa bộ môn ngữ văn “Đưa âm nhạc dân tộc đến với trường học”      
+Bên cạnh, việc đầu tư chuyên môn giảng dạy nhằm đảm bảo phương châm “thầy dạy tốt - trò học tốt”, BGH nhà trường còn chú trọng xây dựng môi trường giáo dục xanh với cơ sở vật chất rộng rãi tiện nghi và đặc biệt là hệ thống cây xanh bao quanh khuôn viên trường. Đặc biệt, trường còn đầu tư xây dựng sân chơi rộng rãi như một công viên có nhiều khu trò chơi vận động giúp các em vừa thư giãn vừa hoạt động thể lực, nâng cao sức khỏe. Tất cả các em đến học tại trường không chỉ tiếp thu kiến thức mà còn được dạy lễ nghĩa, nề nếp và cả GD thể chất.</t>
+  </si>
+  <si>
+    <t>Khu A - Đô thị mới Nam Sài Gòn,P.Tân Phú,Quận 7</t>
+  </si>
+  <si>
+    <t>6,000,000</t>
+  </si>
+  <si>
+    <t>https://thptnamsaigon.hcm.edu.vn/homegd3</t>
+  </si>
+  <si>
+    <t>THPT Phú Nhuận</t>
+  </si>
+  <si>
+    <t>Trường THPT Phú Nhuận là ngôi trường nằm trong top trường tốt nhất ở TP Hồ Chí Minh. Đến nay vào mỗi năm thì trường có đến 30% CB-GV-CNV là Chiến sĩ thi đua, 90% Học sinh đạt được danh hiệu Học sinh Giỏi và Tiên Tiến. Với mức tỷ lệ cao như thế này thì chắc chắn đây sẽ là ngôi trường đáng mơ ước của rất nhiều học sinh và phụ huynh. Nhà trường đánh giá về năng lực chuyên môn của cán bộ quản lý, giáo viên và công nhân viên đều đạt tỷ lệ khá giỏi trên 90%. Có thể thấy chất lượng của giáo viên và các bộ quản lý đạt tiêu chuẩn sẽ giúp cho học sinh có những phương pháp học tốt nhất và dễ tiếp thu nhất. Không những vậy, điển hình nhất chính là số lượng học sinh của trường đạt danh hiệu học sinh giỏi và tham dự các cuộc thi trong tỉnh luôn tăng dần qua hằng năm. Ngoài ra, số lượng học sinh tốt nghiệp và đại học của trường cũng đạt tỉ lệ rất cao: tỉ lệ Tốt nghiệp Phổ thông là 99% và tỉ lệ đậu Đại học là 90%.</t>
+  </si>
+  <si>
+    <t>5 Hoàng Minh Giám,Phường 9,Quận Phú Nhuận</t>
+  </si>
+  <si>
+    <t>https://thptphunhuan.hcm.edu.vn/homegd1</t>
+  </si>
+  <si>
+    <t>NV4</t>
+  </si>
+  <si>
+    <t>THPT Chuyên Lê Hồng Phong</t>
+  </si>
+  <si>
+    <t>Nằm trong top những ngôi trường THPT chất lượng hàng đầu tại TPHCM.  Ngôi trường luôn là cái tên luôn đi đầu trong ngành giáo dục thành phố và cả nước.        
+Trường THPT chuyên Lê Hồng Phong một trong số những ngôi trường có có thành tích cao nhất Khu Vực phía Nam. Trường được giao nhiệm vụ đào tạo học sinh xuất sắc cho Thành Phố Hồ Chí Minh và là trung tâm chất lượng cao của thành phố phía Nam. Nhà trường duy trì ổn định nhịp độ tăng hạng, kết quả thi THPT quốc gia luôn nằm trong top 10 của Thành phố.</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>235 Nguyễn Văn Cừ,Phường 4,Quận 5</t>
+  </si>
+  <si>
+    <t>http://www.thpt-lehongphong-tphcm.edu.vn/</t>
+  </si>
+  <si>
+    <t>THPT Trần Đại Nghĩa</t>
+  </si>
+  <si>
+    <t>Trường THPT chuyên Trần Đại Nghĩa là một trong ba trường trung học phổ thông chuyên Thành phố Hồ Chí Minh hiện nay. Sau hơn 20 năm, Trường Trung học Sư phạm đã đào tạo và bồi dưỡng hơn 15.000 giáo viên Tiểu học cho thành phố, góp phần thực hiên chương trình Cải cách Giáo dục bậc tiểu học đầu thập kỉ 80. Nhằm thực hiện nhiệm vụ nâng cấp, đào tạo giáo viên tiểu học có trình độ Cao đẳng, theo quyết định của Ủy ban Nhân dân thành phố, Trường Trung học Sư phạm, được sáp nhập vào trường Cao đẳng Sư phạm Thành phố Hồ Chí Minh. Đến năm 2000, tiếp nhận cơ sở vật chất từ trường Trung học Sư phạm, Trường THPT Trần Đại Nghĩa được thành lập do Tiến sĩ, Nhà giáo Ưu tú Nguyễn Bác Dụng làm Hiệu trưởng.
+Trải qua gần 20 năm hình thành và phát triển, Trường THPT chuyên Trần Đại Nghĩa đã trở thành một trong những chiếc nôi đào tạo học sinh giỏi uy tín của Thành phố, được nhiều phụ huynh tin tưởng. Với tinh thần nỗ lực vươn lên không ngừng, tập thể sư phạm Nhà trường trong nhiều năm liền được Nhà nước công nhận là tập thể lao động xuất sắc, được Bộ Giáo dục – Đào tạo, Ủy ban nhân dân Thành phố Hồ Chí Minh tặng bằng khen về hoàn thành xuất sắc nhiệm vụ năm học. Năm 2009 Trường THPT chuyên Trần Đại Nghĩa đã được Chủ tịch nước trao tặng Huân chương Lao động hạng Ba và tiếp tục vinh dự nhận Huân chương Lao động hạng Nhì vào năm 2014.</t>
+  </si>
+  <si>
+    <t>20 Lý Tự Trọng,P.Bến Nghé,Quận 1</t>
+  </si>
+  <si>
+    <t>http://trandainghia.edu.vn/</t>
+  </si>
+  <si>
+    <t>THPT Mạc Đĩnh Chi</t>
+  </si>
+  <si>
+    <t>Trường trung học Mạc Đĩnh Chi là một trong những ngôi trường công nổi tiếng của Sài Gòn thu nhận học sinh gồm cả hai bậc học “Trung học đệ nhất cấp” và “Trung học đệ nhị cấp”. 
+Kết quả thi tốt nghiệp THPT hàng năm của trường đều trên tỉ lệ tốt nghiệp của thành phố và nhiều năm đạt tỉ lệ tốt nghiệp cao. Việc đào tạo và bồi dưỡng học sinh giỏi được xem là một trong những hoạt động mũi nhọn  của nhà trường trong hơn 20 năm qua, trường đã đạt nhiều kết quả cao trong các kỳ thi: HSG Quốc gia, HSG Thành phố, HSG Olympic chuyên, HSG Olympic Thành phố, HSG cụm 04,...</t>
+  </si>
+  <si>
+    <t>4 Tân Hòa Đông,Phường 14,Quận 6</t>
+  </si>
+  <si>
+    <t>https://thptmacdinhchi.hcm.edu.vn/homegd3</t>
+  </si>
+  <si>
+    <t>THPT Nguyễn Thượng Hiền</t>
+  </si>
+  <si>
+    <t>Nguyễn Thượng Hiền là một trong những ngôi trường hiếm hoi nổi tiếng trên cả phương diện học tập lẫn phong trào thể thao, nghệ thuật. Trường luôn tiên phong, đạt nhiều thành tích lớn nhỏ trên toàn thành phố và cả nước, nổi tiếng trong số đó có Đội tuyển Đội bóng rổ nữ, Đội tuyển Bơi, Đổi tuyển Cheerleading (LCT),...Bên cạnh đó, trường còn có nhiều hoạt động ngoại khóa thú vị, thu hút sự tham gia của học sinh cùng các CLB giúp học sinh thỏa sức học hỏi, khám phá
+Đội ngũ giáo viên giỏi giàu kinh nghiệm. Trên 40% giáo viên có trình độ Thạc sĩ trở lên, có kinh nghiệm nhiều năm hướng dẫn học sinh đạt kết quả cao trong các kỳ thi cấp Thành phố và cấp Quốc gia.
+Học sinh Nguyễn Thượng Hiền: Ngoan hiền – Tích cực – Học giỏi.Tỷ lệ tốt nghiệp của trường đạt 100%. Học sinh đạt giải cao trong các kỳ thi cấp Thành phố, Quốc gia. Học sinh đạt nhiều kết quả cao trong các phong trào thể thao, nghệ thuật. Nhiều học sinh đậu vào các trường đại học hàng đầu trên cả nước. Nhiều học sinh có kết quả học tập tốt dành được học bổng du học nước ngoài.</t>
+  </si>
+  <si>
+    <t>544 Cách Mạng Tháng 8,Phường 4,Quận Tân Bình</t>
+  </si>
+  <si>
+    <t>https://thptnguyenthuonghien.hcm.edu.vn/homegd2</t>
+  </si>
+  <si>
+    <t>THPT Gia Định</t>
+  </si>
+  <si>
+    <t>Trường Trung học Phổ thông Gia Định, là một trường trung học công lập ở Thành phố Hồ Chí Minh. Được thành lập từ năm 1956, cho đến nay Trường THPT Gia Định là một trong những trường phổ thông lâu đời và có truyền thống nhất tại Thành phố Hồ Chí Minh. Trường THPT Gia Định thường xuyên lọt vào tốp đầu các kỳ thi lớn như: Kì thi học sinh giỏi cấp quốc gia, Kì thi học sinh giỏi cấp thành phố, Kì thi Olympic 30 tháng 4...  Trường luôn có một số lượng lớn đề tài tham gia ở nhiều lĩnh vực và giành nhiều giải Quốc Gia: Năm 2018 có 5 đề tài đi thi cấp Quốc Gia trong đó có 2 đề tài đoạt giải Ba cấp Quốc Gia. Năm 2019 có 3 đề tài đạt giải cấp Quốc Gia gồm 1 giải Nhì và 2 giải Khuyến khích. Năm 2020 có 4 đề tài được tham dự cấp Quốc Gia. Trường có một số em đạt giải ở các kì thi Khoa học Kỹ Thuật cấp Quốc Tế.</t>
+  </si>
+  <si>
+    <t>44 Võ Oanh,Phường 25,Quận Bình Thạnh</t>
+  </si>
+  <si>
+    <t>https://thptgiadinh.hcm.edu.vn/homegd3</t>
+  </si>
+  <si>
+    <t>THPT Nguyễn Hữu Huân</t>
+  </si>
+  <si>
+    <t>Trường có đội đội ngũ giáo viên khoảng 109 người trong đó có khoảng 30 giáo viên có trình độ thạc sĩ. Các thầy cô giáo ở trường THPT Nguyễn Hữu Huân đều là những người có chuyên môn cao và dày dặn kinh nghiệm. Các thầy cô cũng không ngừng đổi mới trong phương pháp dạy để giúp các em có thêm hứng thú trong các bài giảng hơn.</t>
+  </si>
+  <si>
+    <t>11 Đoàn Kết,P.Bình Thọ,TP.Thủ Đức</t>
+  </si>
+  <si>
+    <t>http://thptnguyenhuuhuan.edu.vn/</t>
+  </si>
   <si>
     <t>ID</t>
   </si>
@@ -52,19 +627,33 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>lan</t>
+  </si>
+  <si>
+    <t>lan2205</t>
+  </si>
+  <si>
+    <t>123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.#"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,7 +676,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -123,7 +718,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -135,7 +730,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -182,6 +777,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -217,6 +829,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -368,62 +997,4928 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7EFDBE-1BAF-4FC3-98AE-9C145D90626F}">
+  <dimension ref="A1:AA34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="42.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="44.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="13" max="13" width="6" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
+    <col min="15" max="17" width="5.85546875" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" customWidth="1"/>
+    <col min="19" max="19" width="9.28515625" customWidth="1"/>
+    <col min="20" max="20" width="16.5703125" customWidth="1"/>
+    <col min="21" max="21" width="8.7109375" customWidth="1"/>
+    <col min="22" max="22" width="7.5703125" customWidth="1"/>
+    <col min="23" max="23" width="7" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" customWidth="1"/>
+    <col min="26" max="26" width="112.140625" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4">
+        <v>28</v>
+      </c>
+      <c r="J4">
+        <v>108</v>
+      </c>
+      <c r="K4">
+        <v>2022</v>
+      </c>
+      <c r="L4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4">
+        <v>720</v>
+      </c>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4">
+        <v>20.25</v>
+      </c>
+      <c r="P4">
+        <v>21.25</v>
+      </c>
+      <c r="Q4">
+        <v>22</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>6.75</v>
+      </c>
+      <c r="W4">
+        <v>6.2</v>
+      </c>
+      <c r="X4">
+        <v>6.55</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5">
+        <v>46</v>
+      </c>
+      <c r="J5">
+        <v>177</v>
+      </c>
+      <c r="K5">
+        <v>2022</v>
+      </c>
+      <c r="L5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5">
+        <v>675</v>
+      </c>
+      <c r="N5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5">
+        <v>14.75</v>
+      </c>
+      <c r="P5">
+        <v>15</v>
+      </c>
+      <c r="Q5">
+        <v>16</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>4.92</v>
+      </c>
+      <c r="W5">
+        <v>4.8</v>
+      </c>
+      <c r="X5">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6">
+        <v>48</v>
+      </c>
+      <c r="J6">
+        <v>183</v>
+      </c>
+      <c r="K6">
+        <v>2022</v>
+      </c>
+      <c r="L6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6">
+        <v>270</v>
+      </c>
+      <c r="N6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6">
+        <v>13.75</v>
+      </c>
+      <c r="P6">
+        <v>14.25</v>
+      </c>
+      <c r="Q6">
+        <v>15.5</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>4.75</v>
+      </c>
+      <c r="W6">
+        <v>4.5</v>
+      </c>
+      <c r="X6">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7">
+        <v>27</v>
+      </c>
+      <c r="J7">
+        <v>105</v>
+      </c>
+      <c r="K7">
+        <v>2022</v>
+      </c>
+      <c r="L7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7">
+        <v>1080</v>
+      </c>
+      <c r="N7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7">
+        <v>18.5</v>
+      </c>
+      <c r="P7">
+        <v>18.25</v>
+      </c>
+      <c r="Q7">
+        <v>18.75</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>6.15</v>
+      </c>
+      <c r="W7">
+        <v>5.65</v>
+      </c>
+      <c r="X7">
+        <v>5.96</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>1.3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8">
+        <v>29</v>
+      </c>
+      <c r="J8">
+        <v>111</v>
+      </c>
+      <c r="K8">
+        <v>2022</v>
+      </c>
+      <c r="L8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8">
+        <v>360</v>
+      </c>
+      <c r="N8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8">
+        <v>14</v>
+      </c>
+      <c r="P8">
+        <v>14.5</v>
+      </c>
+      <c r="Q8">
+        <v>15</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>4.67</v>
+      </c>
+      <c r="W8">
+        <v>4.5</v>
+      </c>
+      <c r="X8">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <v>1.8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9">
+        <v>45</v>
+      </c>
+      <c r="J9">
+        <v>174</v>
+      </c>
+      <c r="K9">
+        <v>2022</v>
+      </c>
+      <c r="L9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9">
+        <v>675</v>
+      </c>
+      <c r="N9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9">
+        <v>17.5</v>
+      </c>
+      <c r="P9">
+        <v>18.25</v>
+      </c>
+      <c r="Q9">
+        <v>18.5</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>5.83</v>
+      </c>
+      <c r="W9">
+        <v>5.5</v>
+      </c>
+      <c r="X9">
+        <v>5.63</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10">
+        <v>1.8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10">
+        <v>47</v>
+      </c>
+      <c r="J10">
+        <v>180</v>
+      </c>
+      <c r="K10">
+        <v>2022</v>
+      </c>
+      <c r="L10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10">
+        <v>450</v>
+      </c>
+      <c r="N10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10">
+        <v>14</v>
+      </c>
+      <c r="P10">
+        <v>15</v>
+      </c>
+      <c r="Q10">
+        <v>15.5</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>4.75</v>
+      </c>
+      <c r="W10">
+        <v>4.55</v>
+      </c>
+      <c r="X10">
+        <v>4.66</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <v>1.8</v>
+      </c>
+      <c r="H11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11">
+        <v>39</v>
+      </c>
+      <c r="J11">
+        <v>156</v>
+      </c>
+      <c r="K11">
+        <v>2022</v>
+      </c>
+      <c r="L11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11">
+        <v>765</v>
+      </c>
+      <c r="N11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11">
+        <v>12</v>
+      </c>
+      <c r="P11">
+        <v>12.25</v>
+      </c>
+      <c r="Q11">
+        <v>12.5</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="W11">
+        <v>4</v>
+      </c>
+      <c r="X11">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12">
+        <v>16</v>
+      </c>
+      <c r="J12">
+        <v>69</v>
+      </c>
+      <c r="K12">
+        <v>2022</v>
+      </c>
+      <c r="L12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12">
+        <v>745</v>
+      </c>
+      <c r="N12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12">
+        <v>22.25</v>
+      </c>
+      <c r="P12">
+        <v>22.5</v>
+      </c>
+      <c r="Q12">
+        <v>23</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>7.42</v>
+      </c>
+      <c r="W12">
+        <v>6.85</v>
+      </c>
+      <c r="X12">
+        <v>7.22</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
+      <c r="G13">
+        <v>2.4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>2022</v>
+      </c>
+      <c r="L13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13">
+        <v>340</v>
+      </c>
+      <c r="N13" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13">
+        <v>21</v>
+      </c>
+      <c r="P13">
+        <v>22</v>
+      </c>
+      <c r="Q13">
+        <v>22.25</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>7.05</v>
+      </c>
+      <c r="W13">
+        <v>6.45</v>
+      </c>
+      <c r="X13">
+        <v>6.83</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14">
+        <v>2.5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14">
+        <v>43</v>
+      </c>
+      <c r="J14">
+        <v>168</v>
+      </c>
+      <c r="K14">
+        <v>2022</v>
+      </c>
+      <c r="L14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14">
+        <v>585</v>
+      </c>
+      <c r="N14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14">
+        <v>16</v>
+      </c>
+      <c r="P14">
+        <v>16.5</v>
+      </c>
+      <c r="Q14">
+        <v>16.75</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>5.33</v>
+      </c>
+      <c r="W14">
+        <v>5.15</v>
+      </c>
+      <c r="X14">
+        <v>5.24</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15">
+        <v>100</v>
+      </c>
+      <c r="G15">
+        <v>2.5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15">
+        <v>51</v>
+      </c>
+      <c r="J15">
+        <v>192</v>
+      </c>
+      <c r="K15">
+        <v>2022</v>
+      </c>
+      <c r="L15" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15">
+        <v>675</v>
+      </c>
+      <c r="N15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15">
+        <v>15.75</v>
+      </c>
+      <c r="P15">
+        <v>16.25</v>
+      </c>
+      <c r="Q15">
+        <v>16.5</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>5.25</v>
+      </c>
+      <c r="W15">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="X15">
+        <v>5.05</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16">
+        <v>100</v>
+      </c>
+      <c r="G16">
+        <v>2.7</v>
+      </c>
+      <c r="H16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16">
+        <v>49</v>
+      </c>
+      <c r="J16">
+        <v>186</v>
+      </c>
+      <c r="K16">
+        <v>2022</v>
+      </c>
+      <c r="L16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16">
+        <v>490</v>
+      </c>
+      <c r="N16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16">
+        <v>18.5</v>
+      </c>
+      <c r="P16">
+        <v>18.75</v>
+      </c>
+      <c r="Q16">
+        <v>19</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>6.17</v>
+      </c>
+      <c r="W16">
+        <v>5.55</v>
+      </c>
+      <c r="X16">
+        <v>5.92</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>112</v>
+      </c>
+      <c r="B17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17">
+        <v>100</v>
+      </c>
+      <c r="G17">
+        <v>2.8</v>
+      </c>
+      <c r="H17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17">
+        <v>112</v>
+      </c>
+      <c r="J17">
+        <v>474</v>
+      </c>
+      <c r="K17">
+        <v>2022</v>
+      </c>
+      <c r="L17" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17">
+        <v>540</v>
+      </c>
+      <c r="N17" t="s">
+        <v>85</v>
+      </c>
+      <c r="O17">
+        <v>17.75</v>
+      </c>
+      <c r="P17">
+        <v>18.75</v>
+      </c>
+      <c r="Q17">
+        <v>19</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>5.92</v>
+      </c>
+      <c r="W17">
+        <v>5.55</v>
+      </c>
+      <c r="X17">
+        <v>5.76</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18">
+        <v>100</v>
+      </c>
+      <c r="G18">
+        <v>2.8</v>
+      </c>
+      <c r="H18" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18">
+        <v>41</v>
+      </c>
+      <c r="J18">
+        <v>162</v>
+      </c>
+      <c r="K18">
+        <v>2022</v>
+      </c>
+      <c r="L18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18">
+        <v>585</v>
+      </c>
+      <c r="N18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O18">
+        <v>15</v>
+      </c>
+      <c r="P18">
+        <v>15.5</v>
+      </c>
+      <c r="Q18">
+        <v>15.75</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>5</v>
+      </c>
+      <c r="W18">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="X18">
+        <v>4.82</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19">
+        <v>93</v>
+      </c>
+      <c r="G19">
+        <v>2.9</v>
+      </c>
+      <c r="H19" t="s">
+        <v>93</v>
+      </c>
+      <c r="I19">
+        <v>21</v>
+      </c>
+      <c r="J19">
+        <v>84</v>
+      </c>
+      <c r="K19">
+        <v>2022</v>
+      </c>
+      <c r="L19" t="s">
+        <v>31</v>
+      </c>
+      <c r="M19">
+        <v>620</v>
+      </c>
+      <c r="N19" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19">
+        <v>23.25</v>
+      </c>
+      <c r="P19">
+        <v>23.5</v>
+      </c>
+      <c r="Q19">
+        <v>23.75</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>7.75</v>
+      </c>
+      <c r="W19">
+        <v>7.25</v>
+      </c>
+      <c r="X19">
+        <v>7.55</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20">
+        <v>100</v>
+      </c>
+      <c r="G20">
+        <v>3.1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>97</v>
+      </c>
+      <c r="I20">
+        <v>33</v>
+      </c>
+      <c r="J20">
+        <v>141</v>
+      </c>
+      <c r="K20">
+        <v>2022</v>
+      </c>
+      <c r="L20" t="s">
+        <v>31</v>
+      </c>
+      <c r="M20">
+        <v>720</v>
+      </c>
+      <c r="N20" t="s">
+        <v>32</v>
+      </c>
+      <c r="O20">
+        <v>15</v>
+      </c>
+      <c r="P20">
+        <v>15.25</v>
+      </c>
+      <c r="Q20">
+        <v>15.5</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>5</v>
+      </c>
+      <c r="W20">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="X20">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21">
+        <v>100</v>
+      </c>
+      <c r="G21">
+        <v>3.4</v>
+      </c>
+      <c r="H21" t="s">
+        <v>101</v>
+      </c>
+      <c r="I21">
+        <v>22</v>
+      </c>
+      <c r="J21">
+        <v>90</v>
+      </c>
+      <c r="K21">
+        <v>2022</v>
+      </c>
+      <c r="L21" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21">
+        <v>1155</v>
+      </c>
+      <c r="N21" t="s">
+        <v>32</v>
+      </c>
+      <c r="O21">
+        <v>19.5</v>
+      </c>
+      <c r="P21">
+        <v>20.25</v>
+      </c>
+      <c r="Q21">
+        <v>20.5</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>6.5</v>
+      </c>
+      <c r="W21">
+        <v>5.85</v>
+      </c>
+      <c r="X21">
+        <v>6.2</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>57</v>
+      </c>
+      <c r="B22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22">
+        <v>100</v>
+      </c>
+      <c r="G22">
+        <v>3.4</v>
+      </c>
+      <c r="H22" t="s">
+        <v>105</v>
+      </c>
+      <c r="I22">
+        <v>57</v>
+      </c>
+      <c r="J22">
+        <v>228</v>
+      </c>
+      <c r="K22">
+        <v>2022</v>
+      </c>
+      <c r="L22" t="s">
+        <v>31</v>
+      </c>
+      <c r="M22">
+        <v>675</v>
+      </c>
+      <c r="N22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O22">
+        <v>17.75</v>
+      </c>
+      <c r="P22">
+        <v>18</v>
+      </c>
+      <c r="Q22">
+        <v>18.25</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>5.92</v>
+      </c>
+      <c r="W22">
+        <v>5.45</v>
+      </c>
+      <c r="X22">
+        <v>5.76</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23">
+        <v>100</v>
+      </c>
+      <c r="G23">
+        <v>3.5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>109</v>
+      </c>
+      <c r="I23">
+        <v>20</v>
+      </c>
+      <c r="J23">
+        <v>81</v>
+      </c>
+      <c r="K23">
+        <v>2022</v>
+      </c>
+      <c r="L23" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23">
+        <v>560</v>
+      </c>
+      <c r="N23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O23">
+        <v>22.25</v>
+      </c>
+      <c r="P23">
+        <v>22.5</v>
+      </c>
+      <c r="Q23">
+        <v>23.5</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>7.42</v>
+      </c>
+      <c r="W23">
+        <v>6.9</v>
+      </c>
+      <c r="X23">
+        <v>7.24</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24">
+        <v>100</v>
+      </c>
+      <c r="G24">
+        <v>3.6</v>
+      </c>
+      <c r="H24" t="s">
+        <v>113</v>
+      </c>
+      <c r="I24">
+        <v>50</v>
+      </c>
+      <c r="J24">
+        <v>189</v>
+      </c>
+      <c r="K24">
+        <v>2022</v>
+      </c>
+      <c r="L24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24">
+        <v>810</v>
+      </c>
+      <c r="N24" t="s">
+        <v>32</v>
+      </c>
+      <c r="O24">
+        <v>16</v>
+      </c>
+      <c r="P24">
+        <v>17</v>
+      </c>
+      <c r="Q24">
+        <v>17.25</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>5.35</v>
+      </c>
+      <c r="W24">
+        <v>5</v>
+      </c>
+      <c r="X24">
+        <v>5.23</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25">
+        <v>100</v>
+      </c>
+      <c r="G25">
+        <v>3.6</v>
+      </c>
+      <c r="H25" t="s">
+        <v>117</v>
+      </c>
+      <c r="I25">
+        <v>26</v>
+      </c>
+      <c r="J25">
+        <v>102</v>
+      </c>
+      <c r="K25">
+        <v>2022</v>
+      </c>
+      <c r="L25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M25">
+        <v>765</v>
+      </c>
+      <c r="N25" t="s">
+        <v>32</v>
+      </c>
+      <c r="O25">
+        <v>15</v>
+      </c>
+      <c r="P25">
+        <v>15.5</v>
+      </c>
+      <c r="Q25">
+        <v>15.75</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>5.15</v>
+      </c>
+      <c r="W25">
+        <v>5</v>
+      </c>
+      <c r="X25">
+        <v>5.07</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26">
+        <v>100</v>
+      </c>
+      <c r="G26">
+        <v>4.2</v>
+      </c>
+      <c r="H26" t="s">
+        <v>121</v>
+      </c>
+      <c r="I26">
+        <v>34</v>
+      </c>
+      <c r="J26">
+        <v>144</v>
+      </c>
+      <c r="K26">
+        <v>2022</v>
+      </c>
+      <c r="L26" t="s">
+        <v>31</v>
+      </c>
+      <c r="M26">
+        <v>585</v>
+      </c>
+      <c r="N26" t="s">
+        <v>32</v>
+      </c>
+      <c r="O26">
+        <v>17</v>
+      </c>
+      <c r="P26">
+        <v>18</v>
+      </c>
+      <c r="Q26">
+        <v>18.25</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>5.67</v>
+      </c>
+      <c r="W26">
+        <v>5.4</v>
+      </c>
+      <c r="X26">
+        <v>5.51</v>
+      </c>
+      <c r="Y26">
+        <v>1</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
+        <v>124</v>
+      </c>
+      <c r="F27">
+        <v>100</v>
+      </c>
+      <c r="G27">
+        <v>4.2</v>
+      </c>
+      <c r="H27" t="s">
+        <v>125</v>
+      </c>
+      <c r="I27">
+        <v>32</v>
+      </c>
+      <c r="J27">
+        <v>138</v>
+      </c>
+      <c r="K27">
+        <v>2022</v>
+      </c>
+      <c r="L27" t="s">
+        <v>31</v>
+      </c>
+      <c r="M27">
+        <v>720</v>
+      </c>
+      <c r="N27" t="s">
+        <v>32</v>
+      </c>
+      <c r="O27">
+        <v>16.75</v>
+      </c>
+      <c r="P27">
+        <v>17</v>
+      </c>
+      <c r="Q27">
+        <v>17.25</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>5.58</v>
+      </c>
+      <c r="W27">
+        <v>5.2</v>
+      </c>
+      <c r="X27">
+        <v>5.39</v>
+      </c>
+      <c r="Y27">
+        <v>1</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28">
+        <v>100</v>
+      </c>
+      <c r="G28">
+        <v>4.2</v>
+      </c>
+      <c r="H28" t="s">
+        <v>129</v>
+      </c>
+      <c r="I28">
+        <v>25</v>
+      </c>
+      <c r="J28">
+        <v>99</v>
+      </c>
+      <c r="K28">
+        <v>2022</v>
+      </c>
+      <c r="L28" t="s">
+        <v>31</v>
+      </c>
+      <c r="M28">
+        <v>585</v>
+      </c>
+      <c r="N28" t="s">
+        <v>32</v>
+      </c>
+      <c r="O28">
+        <v>13</v>
+      </c>
+      <c r="P28">
+        <v>13.5</v>
+      </c>
+      <c r="Q28">
+        <v>14</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>4.5</v>
+      </c>
+      <c r="W28">
+        <v>4.33</v>
+      </c>
+      <c r="X28">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="Y28">
+        <v>1</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>69</v>
+      </c>
+      <c r="B29" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29">
+        <v>100</v>
+      </c>
+      <c r="G29">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H29" t="s">
+        <v>133</v>
+      </c>
+      <c r="I29">
+        <v>69</v>
+      </c>
+      <c r="J29">
+        <v>288</v>
+      </c>
+      <c r="K29">
+        <v>2022</v>
+      </c>
+      <c r="L29" t="s">
+        <v>31</v>
+      </c>
+      <c r="M29">
+        <v>630</v>
+      </c>
+      <c r="N29" t="s">
+        <v>32</v>
+      </c>
+      <c r="O29">
+        <v>15.25</v>
+      </c>
+      <c r="P29">
+        <v>16</v>
+      </c>
+      <c r="Q29">
+        <v>16.75</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>5.08</v>
+      </c>
+      <c r="W29">
+        <v>4.8</v>
+      </c>
+      <c r="X29">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="Y29">
+        <v>1</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>40</v>
+      </c>
+      <c r="B30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>136</v>
+      </c>
+      <c r="F30">
+        <v>100</v>
+      </c>
+      <c r="G30">
+        <v>4.5</v>
+      </c>
+      <c r="H30" t="s">
+        <v>137</v>
+      </c>
+      <c r="I30">
+        <v>40</v>
+      </c>
+      <c r="J30">
+        <v>159</v>
+      </c>
+      <c r="K30">
+        <v>2022</v>
+      </c>
+      <c r="L30" t="s">
+        <v>31</v>
+      </c>
+      <c r="M30">
+        <v>675</v>
+      </c>
+      <c r="N30" t="s">
+        <v>32</v>
+      </c>
+      <c r="O30">
+        <v>12.5</v>
+      </c>
+      <c r="P30">
+        <v>12.75</v>
+      </c>
+      <c r="Q30">
+        <v>13.5</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="W30">
+        <v>4.05</v>
+      </c>
+      <c r="X30">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="Y30">
+        <v>1</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>140</v>
+      </c>
+      <c r="F31">
+        <v>100</v>
+      </c>
+      <c r="G31">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H31" t="s">
+        <v>141</v>
+      </c>
+      <c r="I31">
+        <v>36</v>
+      </c>
+      <c r="J31">
+        <v>150</v>
+      </c>
+      <c r="K31">
+        <v>2022</v>
+      </c>
+      <c r="L31" t="s">
+        <v>31</v>
+      </c>
+      <c r="M31">
+        <v>630</v>
+      </c>
+      <c r="N31" t="s">
+        <v>32</v>
+      </c>
+      <c r="O31">
+        <v>13.5</v>
+      </c>
+      <c r="P31">
+        <v>13.75</v>
+      </c>
+      <c r="Q31">
+        <v>14.75</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>4.5</v>
+      </c>
+      <c r="W31">
+        <v>4.2</v>
+      </c>
+      <c r="X31">
+        <v>4.3</v>
+      </c>
+      <c r="Y31">
+        <v>1</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32">
+        <v>100</v>
+      </c>
+      <c r="G32">
+        <v>5.3</v>
+      </c>
+      <c r="H32" t="s">
+        <v>145</v>
+      </c>
+      <c r="I32">
+        <v>65</v>
+      </c>
+      <c r="J32">
+        <v>273</v>
+      </c>
+      <c r="K32">
+        <v>2022</v>
+      </c>
+      <c r="L32" t="s">
+        <v>31</v>
+      </c>
+      <c r="M32">
+        <v>855</v>
+      </c>
+      <c r="N32" t="s">
+        <v>32</v>
+      </c>
+      <c r="O32">
+        <v>19.75</v>
+      </c>
+      <c r="P32">
+        <v>20</v>
+      </c>
+      <c r="Q32">
+        <v>21</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>6.58</v>
+      </c>
+      <c r="W32">
+        <v>5.95</v>
+      </c>
+      <c r="X32">
+        <v>6.34</v>
+      </c>
+      <c r="Y32">
+        <v>1</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
+        <v>148</v>
+      </c>
+      <c r="F33">
+        <v>100</v>
+      </c>
+      <c r="G33">
+        <v>6.3</v>
+      </c>
+      <c r="H33" t="s">
+        <v>149</v>
+      </c>
+      <c r="I33">
+        <v>37</v>
+      </c>
+      <c r="J33">
+        <v>153</v>
+      </c>
+      <c r="K33">
+        <v>2022</v>
+      </c>
+      <c r="L33" t="s">
+        <v>31</v>
+      </c>
+      <c r="M33">
+        <v>225</v>
+      </c>
+      <c r="N33" t="s">
+        <v>150</v>
+      </c>
+      <c r="O33">
+        <v>18.75</v>
+      </c>
+      <c r="P33">
+        <v>19</v>
+      </c>
+      <c r="Q33">
+        <v>19.5</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>6.4</v>
+      </c>
+      <c r="W33">
+        <v>5.55</v>
+      </c>
+      <c r="X33">
+        <v>6.07</v>
+      </c>
+      <c r="Y33">
+        <v>1</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>68</v>
+      </c>
+      <c r="B34" t="s">
+        <v>152</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>153</v>
+      </c>
+      <c r="F34">
+        <v>100</v>
+      </c>
+      <c r="G34">
+        <v>6.1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>154</v>
+      </c>
+      <c r="I34">
+        <v>68</v>
+      </c>
+      <c r="J34">
+        <v>282</v>
+      </c>
+      <c r="K34">
+        <v>2022</v>
+      </c>
+      <c r="L34" t="s">
+        <v>31</v>
+      </c>
+      <c r="M34">
+        <v>825</v>
+      </c>
+      <c r="N34" t="s">
+        <v>32</v>
+      </c>
+      <c r="O34">
+        <v>22.5</v>
+      </c>
+      <c r="P34">
+        <v>23.5</v>
+      </c>
+      <c r="Q34">
+        <v>23.75</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>7.5</v>
+      </c>
+      <c r="W34">
+        <v>6.85</v>
+      </c>
+      <c r="X34">
+        <v>7.28</v>
+      </c>
+      <c r="Y34">
+        <v>1</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="Z1:Z3"/>
+    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="R1:R3"/>
+    <mergeCell ref="S1:S3"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="I1:Q1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA24856-5F79-46EF-A6F1-45B40B96516B}">
+  <dimension ref="A1:AB9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="35.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>109</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="3">
+        <v>100</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I4" s="3">
+        <v>109</v>
+      </c>
+      <c r="J4" s="3">
+        <v>456</v>
+      </c>
+      <c r="K4" s="3">
+        <v>2022</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="3">
+        <v>105</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="3">
+        <v>36</v>
+      </c>
+      <c r="P4" s="3">
+        <v>36.5</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>26.5</v>
+      </c>
+      <c r="R4" s="3">
+        <v>27</v>
+      </c>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3">
+        <v>0</v>
+      </c>
+      <c r="V4" s="3">
+        <v>0</v>
+      </c>
+      <c r="W4" s="3">
+        <v>7.4</v>
+      </c>
+      <c r="X4" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>7.1</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>108</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="3">
+        <v>100</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I5" s="3">
+        <v>108</v>
+      </c>
+      <c r="J5" s="3">
+        <v>417</v>
+      </c>
+      <c r="K5" s="3">
+        <v>2022</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="3">
+        <v>6</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="3">
+        <v>34.25</v>
+      </c>
+      <c r="P5" s="3">
+        <v>34.5</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>26</v>
+      </c>
+      <c r="R5" s="3">
+        <v>26.5</v>
+      </c>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3">
+        <v>0</v>
+      </c>
+      <c r="V5" s="3">
+        <v>0</v>
+      </c>
+      <c r="W5" s="3">
+        <v>6.95</v>
+      </c>
+      <c r="X5" s="3">
+        <v>6.35</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>6.72</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>30</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6" s="3">
+        <v>100</v>
+      </c>
+      <c r="G6" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I6" s="3">
+        <v>30</v>
+      </c>
+      <c r="J6" s="3">
+        <v>126</v>
+      </c>
+      <c r="K6" s="3">
+        <v>2022</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="3">
+        <v>35</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="3">
+        <v>27</v>
+      </c>
+      <c r="P6" s="3">
+        <v>27.5</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3">
+        <v>0</v>
+      </c>
+      <c r="V6" s="3">
+        <v>0</v>
+      </c>
+      <c r="W6" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="X6" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>5.32</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>55</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7" s="3">
+        <v>100</v>
+      </c>
+      <c r="G7" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I7" s="3">
+        <v>55</v>
+      </c>
+      <c r="J7" s="3">
+        <v>213</v>
+      </c>
+      <c r="K7" s="3">
+        <v>2022</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="3">
+        <v>35</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="3">
+        <v>33</v>
+      </c>
+      <c r="P7" s="3">
+        <v>33.25</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3">
+        <v>0</v>
+      </c>
+      <c r="V7" s="3">
+        <v>0</v>
+      </c>
+      <c r="W7" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="X7" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>63</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" s="3">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
+        <v>7.1</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I8" s="3">
+        <v>63</v>
+      </c>
+      <c r="J8" s="3">
+        <v>258</v>
+      </c>
+      <c r="K8" s="3">
+        <v>2022</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="3">
+        <v>35</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="3">
+        <v>30.75</v>
+      </c>
+      <c r="P8" s="3">
+        <v>31</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>6.35</v>
+      </c>
+      <c r="X8" s="3">
+        <v>6.05</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>6.18</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9" s="3">
+        <v>100</v>
+      </c>
+      <c r="G9" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I9" s="3">
+        <v>3</v>
+      </c>
+      <c r="J9" s="3">
+        <v>21</v>
+      </c>
+      <c r="K9" s="3">
+        <v>2022</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="3">
+        <v>35</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="3">
+        <v>27.5</v>
+      </c>
+      <c r="P9" s="3">
+        <v>28</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="X9" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>4.93</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="I1:R1"/>
+    <mergeCell ref="S1:S3"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="AB1:AB3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="Z1:Z3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B140F43-8AF7-4427-8710-A095BAD2D5C8}">
+  <dimension ref="A1:AB9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="45" customWidth="1"/>
+    <col min="8" max="8" width="33.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>109</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="3">
+        <v>100</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I4" s="3">
+        <v>109</v>
+      </c>
+      <c r="J4" s="3">
+        <v>462</v>
+      </c>
+      <c r="K4" s="3">
+        <v>2022</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="3">
+        <v>70</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="3">
+        <v>38.25</v>
+      </c>
+      <c r="P4" s="3">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>26.5</v>
+      </c>
+      <c r="R4" s="3">
+        <v>27</v>
+      </c>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3">
+        <v>0</v>
+      </c>
+      <c r="V4" s="3">
+        <v>0</v>
+      </c>
+      <c r="W4" s="3">
+        <v>7.65</v>
+      </c>
+      <c r="X4" s="3">
+        <v>7</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>7.35</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>108</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="3">
+        <v>100</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I5" s="3">
+        <v>108</v>
+      </c>
+      <c r="J5" s="3">
+        <v>420</v>
+      </c>
+      <c r="K5" s="3">
+        <v>2022</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="3">
+        <v>35</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="3">
+        <v>37.75</v>
+      </c>
+      <c r="P5" s="3">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>26</v>
+      </c>
+      <c r="R5" s="3">
+        <v>26.5</v>
+      </c>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3">
+        <v>0</v>
+      </c>
+      <c r="V5" s="3">
+        <v>0</v>
+      </c>
+      <c r="W5" s="3">
+        <v>7.55</v>
+      </c>
+      <c r="X5" s="3">
+        <v>6.85</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>7.22</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>30</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6" s="3">
+        <v>100</v>
+      </c>
+      <c r="G6" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I6" s="3">
+        <v>30</v>
+      </c>
+      <c r="J6" s="3">
+        <v>129</v>
+      </c>
+      <c r="K6" s="3">
+        <v>2022</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="3">
+        <v>35</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="3">
+        <v>34</v>
+      </c>
+      <c r="P6" s="3">
+        <v>34.5</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3">
+        <v>0</v>
+      </c>
+      <c r="V6" s="3">
+        <v>0</v>
+      </c>
+      <c r="W6" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="X6" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>6.25</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>55</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7" s="3">
+        <v>100</v>
+      </c>
+      <c r="G7" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I7" s="3">
+        <v>55</v>
+      </c>
+      <c r="J7" s="3">
+        <v>216</v>
+      </c>
+      <c r="K7" s="3">
+        <v>2022</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="3">
+        <v>35</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="3">
+        <v>36.25</v>
+      </c>
+      <c r="P7" s="3">
+        <v>37.25</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3">
+        <v>0</v>
+      </c>
+      <c r="V7" s="3">
+        <v>0</v>
+      </c>
+      <c r="W7" s="3">
+        <v>7.25</v>
+      </c>
+      <c r="X7" s="3">
+        <v>6.75</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>7</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>63</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" s="3">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
+        <v>7.1</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I8" s="3">
+        <v>63</v>
+      </c>
+      <c r="J8" s="3">
+        <v>261</v>
+      </c>
+      <c r="K8" s="3">
+        <v>2022</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="3">
+        <v>35</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="3">
+        <v>35.5</v>
+      </c>
+      <c r="P8" s="3">
+        <v>35.5</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>7.1</v>
+      </c>
+      <c r="X8" s="3">
+        <v>6.55</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>6.77</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9" s="3">
+        <v>100</v>
+      </c>
+      <c r="G9" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I9" s="3">
+        <v>3</v>
+      </c>
+      <c r="J9" s="3">
+        <v>24</v>
+      </c>
+      <c r="K9" s="3">
+        <v>2022</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="3">
+        <v>35</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="3">
+        <v>33.25</v>
+      </c>
+      <c r="P9" s="3">
+        <v>34.25</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
+        <v>6.65</v>
+      </c>
+      <c r="X9" s="3">
+        <v>5.95</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="AB1:AB3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="Z1:Z3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:R1"/>
+    <mergeCell ref="S1:S3"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF43877-1FF0-4D57-A333-9DBE4174D065}">
+  <dimension ref="A1:Z12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="40.7109375" customWidth="1"/>
+    <col min="8" max="8" width="30.5703125" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" customWidth="1"/>
+    <col min="14" max="14" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>109</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="4">
+        <v>100</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="I4" s="4">
+        <v>109</v>
+      </c>
+      <c r="J4" s="4">
+        <v>468</v>
+      </c>
+      <c r="K4" s="4">
+        <v>2022</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="4">
+        <v>70</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P4" s="4">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4">
+        <v>0</v>
+      </c>
+      <c r="T4" s="4">
+        <v>0</v>
+      </c>
+      <c r="U4" s="4">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="V4" s="4">
+        <v>8.25</v>
+      </c>
+      <c r="W4" s="4">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="X4" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="4">
+        <v>100</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="4">
+        <v>16</v>
+      </c>
+      <c r="J5" s="4">
+        <v>72</v>
+      </c>
+      <c r="K5" s="4">
+        <v>2022</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="4">
+        <v>70</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="4">
+        <v>32</v>
+      </c>
+      <c r="P5" s="4">
+        <v>32.25</v>
+      </c>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4">
+        <v>0</v>
+      </c>
+      <c r="T5" s="4">
+        <v>0</v>
+      </c>
+      <c r="U5" s="4">
+        <v>8</v>
+      </c>
+      <c r="V5" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="W5" s="4">
+        <v>7.1</v>
+      </c>
+      <c r="X5" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="4">
+        <v>100</v>
+      </c>
+      <c r="G6" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
+        <v>6</v>
+      </c>
+      <c r="K6" s="4">
+        <v>2022</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="4">
+        <v>105</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="4">
+        <v>29.5</v>
+      </c>
+      <c r="P6" s="4">
+        <v>29.75</v>
+      </c>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4">
+        <v>7.38</v>
+      </c>
+      <c r="V6" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="W6" s="4">
+        <v>6.23</v>
+      </c>
+      <c r="X6" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>21</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="4">
+        <v>100</v>
+      </c>
+      <c r="G7" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I7" s="4">
+        <v>21</v>
+      </c>
+      <c r="J7" s="4">
+        <v>87</v>
+      </c>
+      <c r="K7" s="4">
+        <v>2022</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="4">
+        <v>35</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="4">
+        <v>32.25</v>
+      </c>
+      <c r="P7" s="4">
+        <v>33.25</v>
+      </c>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4">
+        <v>0</v>
+      </c>
+      <c r="T7" s="4">
+        <v>0</v>
+      </c>
+      <c r="U7" s="4">
+        <v>8.06</v>
+      </c>
+      <c r="V7" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="W7" s="4">
+        <v>7.38</v>
+      </c>
+      <c r="X7" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>108</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="4">
+        <v>100</v>
+      </c>
+      <c r="G8" s="4">
+        <v>4</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="I8" s="4">
+        <v>108</v>
+      </c>
+      <c r="J8" s="4">
+        <v>426</v>
+      </c>
+      <c r="K8" s="4">
+        <v>2022</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="4">
+        <v>105</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="4">
+        <v>34.25</v>
+      </c>
+      <c r="P8" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4">
+        <v>0</v>
+      </c>
+      <c r="T8" s="4">
+        <v>0</v>
+      </c>
+      <c r="U8" s="4">
+        <v>8.56</v>
+      </c>
+      <c r="V8" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="W8" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="X8" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>55</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9" s="4">
+        <v>98</v>
+      </c>
+      <c r="G9" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="I9" s="4">
+        <v>55</v>
+      </c>
+      <c r="J9" s="4">
+        <v>222</v>
+      </c>
+      <c r="K9" s="4">
+        <v>2022</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="4">
+        <v>105</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="4">
+        <v>31</v>
+      </c>
+      <c r="P9" s="4">
+        <v>31</v>
+      </c>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4">
+        <v>0</v>
+      </c>
+      <c r="T9" s="4">
+        <v>0</v>
+      </c>
+      <c r="U9" s="4">
+        <v>7.75</v>
+      </c>
+      <c r="V9" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="W9" s="4">
+        <v>6.52</v>
+      </c>
+      <c r="X9" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>68</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" s="4">
+        <v>92</v>
+      </c>
+      <c r="G10" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I10" s="4">
+        <v>68</v>
+      </c>
+      <c r="J10" s="4">
+        <v>285</v>
+      </c>
+      <c r="K10" s="4">
+        <v>2022</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="4">
+        <v>105</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="4">
+        <v>29.5</v>
+      </c>
+      <c r="P10" s="4">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4">
+        <v>0</v>
+      </c>
+      <c r="T10" s="4">
+        <v>0</v>
+      </c>
+      <c r="U10" s="4">
+        <v>7.38</v>
+      </c>
+      <c r="V10" s="4">
+        <v>4</v>
+      </c>
+      <c r="W10" s="4">
+        <v>5.26</v>
+      </c>
+      <c r="X10" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>63</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="4">
+        <v>100</v>
+      </c>
+      <c r="G11" s="4">
+        <v>7.1</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="I11" s="4">
+        <v>63</v>
+      </c>
+      <c r="J11" s="4">
+        <v>267</v>
+      </c>
+      <c r="K11" s="4">
+        <v>2022</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="4">
+        <v>105</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" s="4">
+        <v>31.25</v>
+      </c>
+      <c r="P11" s="4">
+        <v>31.5</v>
+      </c>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4">
+        <v>0</v>
+      </c>
+      <c r="T11" s="4">
+        <v>0</v>
+      </c>
+      <c r="U11" s="4">
+        <v>7.8100000000000005</v>
+      </c>
+      <c r="V11" s="4">
+        <v>7</v>
+      </c>
+      <c r="W11" s="4">
+        <v>7.34</v>
+      </c>
+      <c r="X11" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>3</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4">
+        <v>10</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F12" s="4">
+        <v>100</v>
+      </c>
+      <c r="G12" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I12" s="4">
+        <v>3</v>
+      </c>
+      <c r="J12" s="4">
+        <v>30</v>
+      </c>
+      <c r="K12" s="4">
+        <v>2022</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="4">
+        <v>70</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" s="4">
+        <v>26.5</v>
+      </c>
+      <c r="P12" s="4">
+        <v>26.75</v>
+      </c>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4">
+        <v>0</v>
+      </c>
+      <c r="T12" s="4">
+        <v>0</v>
+      </c>
+      <c r="U12" s="4">
+        <v>6.62</v>
+      </c>
+      <c r="V12" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="W12" s="4">
+        <v>5.71</v>
+      </c>
+      <c r="X12" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="Q1:Q3"/>
+    <mergeCell ref="R1:R3"/>
+    <mergeCell ref="S1:S3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="Z1:Z3"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:X3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3E9D1D-7468-4015-944B-4DBA3923072B}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ts910/data.xlsx
+++ b/ts910/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NGUYEN PHUONG LAN\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\STUDY\C#\LT\ts910\ts910\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5C2A1B-4720-4A17-8FE1-30484CF2613F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86279A85-DAA3-40EE-91F4-CCB59CD381BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trường thường" sheetId="1" r:id="rId1"/>
@@ -648,10 +648,17 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.#"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -673,19 +680,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1001,7 +1009,7 @@
   <dimension ref="A1:AA34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1034,130 +1042,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1" t="s">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
       <c r="O3" t="s">
         <v>15</v>
       </c>
@@ -1167,16 +1175,16 @@
       <c r="Q3" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -1197,7 +1205,7 @@
       <c r="F4">
         <v>100</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>0.7</v>
       </c>
       <c r="H4" t="s">
@@ -1274,7 +1282,7 @@
       <c r="F5">
         <v>100</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>0.7</v>
       </c>
       <c r="H5" t="s">
@@ -1351,7 +1359,7 @@
       <c r="F6">
         <v>100</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>0.8</v>
       </c>
       <c r="H6" t="s">
@@ -3563,699 +3571,6 @@
       </c>
       <c r="AA34">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="X1:X3"/>
-    <mergeCell ref="Y1:Y3"/>
-    <mergeCell ref="Z1:Z3"/>
-    <mergeCell ref="AA1:AA3"/>
-    <mergeCell ref="R1:R3"/>
-    <mergeCell ref="S1:S3"/>
-    <mergeCell ref="T1:T3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="V1:V3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="I1:Q1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA24856-5F79-46EF-A6F1-45B40B96516B}">
-  <dimension ref="A1:AB9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
-    <col min="8" max="8" width="35.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>109</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C4" s="3">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F4" s="3">
-        <v>100</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="I4" s="3">
-        <v>109</v>
-      </c>
-      <c r="J4" s="3">
-        <v>456</v>
-      </c>
-      <c r="K4" s="3">
-        <v>2022</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="3">
-        <v>105</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="3">
-        <v>36</v>
-      </c>
-      <c r="P4" s="3">
-        <v>36.5</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>26.5</v>
-      </c>
-      <c r="R4" s="3">
-        <v>27</v>
-      </c>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3">
-        <v>0</v>
-      </c>
-      <c r="V4" s="3">
-        <v>0</v>
-      </c>
-      <c r="W4" s="3">
-        <v>7.4</v>
-      </c>
-      <c r="X4" s="3">
-        <v>6.7</v>
-      </c>
-      <c r="Y4" s="3">
-        <v>7.1</v>
-      </c>
-      <c r="Z4" s="3">
-        <v>2</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB4" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>108</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F5" s="3">
-        <v>100</v>
-      </c>
-      <c r="G5" s="3">
-        <v>4</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="I5" s="3">
-        <v>108</v>
-      </c>
-      <c r="J5" s="3">
-        <v>417</v>
-      </c>
-      <c r="K5" s="3">
-        <v>2022</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="3">
-        <v>6</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" s="3">
-        <v>34.25</v>
-      </c>
-      <c r="P5" s="3">
-        <v>34.5</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>26</v>
-      </c>
-      <c r="R5" s="3">
-        <v>26.5</v>
-      </c>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3">
-        <v>0</v>
-      </c>
-      <c r="V5" s="3">
-        <v>0</v>
-      </c>
-      <c r="W5" s="3">
-        <v>6.95</v>
-      </c>
-      <c r="X5" s="3">
-        <v>6.35</v>
-      </c>
-      <c r="Y5" s="3">
-        <v>6.72</v>
-      </c>
-      <c r="Z5" s="3">
-        <v>2</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB5" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>30</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="F6" s="3">
-        <v>100</v>
-      </c>
-      <c r="G6" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I6" s="3">
-        <v>30</v>
-      </c>
-      <c r="J6" s="3">
-        <v>126</v>
-      </c>
-      <c r="K6" s="3">
-        <v>2022</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="3">
-        <v>35</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" s="3">
-        <v>27</v>
-      </c>
-      <c r="P6" s="3">
-        <v>27.5</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3">
-        <v>0</v>
-      </c>
-      <c r="V6" s="3">
-        <v>0</v>
-      </c>
-      <c r="W6" s="3">
-        <v>5.4</v>
-      </c>
-      <c r="X6" s="3">
-        <v>5.2</v>
-      </c>
-      <c r="Y6" s="3">
-        <v>5.32</v>
-      </c>
-      <c r="Z6" s="3">
-        <v>2</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AB6" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>55</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C7" s="3">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F7" s="3">
-        <v>100</v>
-      </c>
-      <c r="G7" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="I7" s="3">
-        <v>55</v>
-      </c>
-      <c r="J7" s="3">
-        <v>213</v>
-      </c>
-      <c r="K7" s="3">
-        <v>2022</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" s="3">
-        <v>35</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O7" s="3">
-        <v>33</v>
-      </c>
-      <c r="P7" s="3">
-        <v>33.25</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3">
-        <v>0</v>
-      </c>
-      <c r="V7" s="3">
-        <v>0</v>
-      </c>
-      <c r="W7" s="3">
-        <v>6.7</v>
-      </c>
-      <c r="X7" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="Y7" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="Z7" s="3">
-        <v>2</v>
-      </c>
-      <c r="AA7" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB7" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>63</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3">
-        <v>10</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F8" s="3">
-        <v>100</v>
-      </c>
-      <c r="G8" s="3">
-        <v>7.1</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="I8" s="3">
-        <v>63</v>
-      </c>
-      <c r="J8" s="3">
-        <v>258</v>
-      </c>
-      <c r="K8" s="3">
-        <v>2022</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" s="3">
-        <v>35</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O8" s="3">
-        <v>30.75</v>
-      </c>
-      <c r="P8" s="3">
-        <v>31</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
-      <c r="W8" s="3">
-        <v>6.35</v>
-      </c>
-      <c r="X8" s="3">
-        <v>6.05</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>6.18</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>2</v>
-      </c>
-      <c r="AA8" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>3</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3">
-        <v>10</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="F9" s="3">
-        <v>100</v>
-      </c>
-      <c r="G9" s="3">
-        <v>14.5</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="I9" s="3">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3">
-        <v>21</v>
-      </c>
-      <c r="K9" s="3">
-        <v>2022</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="3">
-        <v>35</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O9" s="3">
-        <v>27.5</v>
-      </c>
-      <c r="P9" s="3">
-        <v>28</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
-      <c r="V9" s="3">
-        <v>0</v>
-      </c>
-      <c r="W9" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="X9" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>4.93</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>2</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB9" s="3">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -4269,8 +3584,687 @@
     <mergeCell ref="G1:G3"/>
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="I2:I3"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="I1:R1"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="I1:Q1"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R1:R3"/>
+    <mergeCell ref="S1:S3"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="Z1:Z3"/>
+    <mergeCell ref="AA1:AA3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA24856-5F79-46EF-A6F1-45B40B96516B}">
+  <dimension ref="A1:AB9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="35.85546875" customWidth="1"/>
+    <col min="27" max="27" width="22.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" t="s">
+        <v>156</v>
+      </c>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>109</v>
+      </c>
+      <c r="B4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>1.2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>160</v>
+      </c>
+      <c r="I4">
+        <v>109</v>
+      </c>
+      <c r="J4">
+        <v>456</v>
+      </c>
+      <c r="K4">
+        <v>2022</v>
+      </c>
+      <c r="L4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4">
+        <v>105</v>
+      </c>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4">
+        <v>36</v>
+      </c>
+      <c r="P4">
+        <v>36.5</v>
+      </c>
+      <c r="Q4">
+        <v>26.5</v>
+      </c>
+      <c r="R4">
+        <v>27</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>7.4</v>
+      </c>
+      <c r="X4">
+        <v>6.7</v>
+      </c>
+      <c r="Y4">
+        <v>7.1</v>
+      </c>
+      <c r="Z4">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>108</v>
+      </c>
+      <c r="B5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I5">
+        <v>108</v>
+      </c>
+      <c r="J5">
+        <v>417</v>
+      </c>
+      <c r="K5">
+        <v>2022</v>
+      </c>
+      <c r="L5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5">
+        <v>6</v>
+      </c>
+      <c r="N5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5">
+        <v>34.25</v>
+      </c>
+      <c r="P5">
+        <v>34.5</v>
+      </c>
+      <c r="Q5">
+        <v>26</v>
+      </c>
+      <c r="R5">
+        <v>26.5</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>6.95</v>
+      </c>
+      <c r="X5">
+        <v>6.35</v>
+      </c>
+      <c r="Y5">
+        <v>6.72</v>
+      </c>
+      <c r="Z5">
+        <v>2</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>4.5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>168</v>
+      </c>
+      <c r="I6">
+        <v>30</v>
+      </c>
+      <c r="J6">
+        <v>126</v>
+      </c>
+      <c r="K6">
+        <v>2022</v>
+      </c>
+      <c r="L6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6">
+        <v>35</v>
+      </c>
+      <c r="N6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6">
+        <v>27</v>
+      </c>
+      <c r="P6">
+        <v>27.5</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>159</v>
+      </c>
+      <c r="R6" t="s">
+        <v>159</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>5.4</v>
+      </c>
+      <c r="X6">
+        <v>5.2</v>
+      </c>
+      <c r="Y6">
+        <v>5.32</v>
+      </c>
+      <c r="Z6">
+        <v>2</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H7" t="s">
+        <v>172</v>
+      </c>
+      <c r="I7">
+        <v>55</v>
+      </c>
+      <c r="J7">
+        <v>213</v>
+      </c>
+      <c r="K7">
+        <v>2022</v>
+      </c>
+      <c r="L7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7">
+        <v>35</v>
+      </c>
+      <c r="N7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7">
+        <v>33</v>
+      </c>
+      <c r="P7">
+        <v>33.25</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>159</v>
+      </c>
+      <c r="R7" t="s">
+        <v>159</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>6.7</v>
+      </c>
+      <c r="X7">
+        <v>6.2</v>
+      </c>
+      <c r="Y7">
+        <v>6.5</v>
+      </c>
+      <c r="Z7">
+        <v>2</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>7.1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>176</v>
+      </c>
+      <c r="I8">
+        <v>63</v>
+      </c>
+      <c r="J8">
+        <v>258</v>
+      </c>
+      <c r="K8">
+        <v>2022</v>
+      </c>
+      <c r="L8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8">
+        <v>35</v>
+      </c>
+      <c r="N8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8">
+        <v>30.75</v>
+      </c>
+      <c r="P8">
+        <v>31</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>159</v>
+      </c>
+      <c r="R8" t="s">
+        <v>159</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>6.35</v>
+      </c>
+      <c r="X8">
+        <v>6.05</v>
+      </c>
+      <c r="Y8">
+        <v>6.18</v>
+      </c>
+      <c r="Z8">
+        <v>2</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <v>14.5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>180</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>21</v>
+      </c>
+      <c r="K9">
+        <v>2022</v>
+      </c>
+      <c r="L9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9">
+        <v>35</v>
+      </c>
+      <c r="N9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9">
+        <v>27.5</v>
+      </c>
+      <c r="P9">
+        <v>28</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>159</v>
+      </c>
+      <c r="R9" t="s">
+        <v>159</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>5.5</v>
+      </c>
+      <c r="X9">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Y9">
+        <v>4.93</v>
+      </c>
+      <c r="Z9">
+        <v>2</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB9">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="AB1:AB3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="Z1:Z3"/>
     <mergeCell ref="S1:S3"/>
     <mergeCell ref="T1:T3"/>
     <mergeCell ref="U1:U3"/>
@@ -4279,14 +4273,21 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
-    <mergeCell ref="AA1:AA3"/>
-    <mergeCell ref="AB1:AB3"/>
-    <mergeCell ref="V1:V3"/>
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="X1:X3"/>
-    <mergeCell ref="Y1:Y3"/>
-    <mergeCell ref="Z1:Z3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="I1:R1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="AA4" r:id="rId1" xr:uid="{D334F06D-47DD-4266-A1AE-4470382530DD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4306,649 +4307,647 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1" t="s">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="3" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" t="s">
         <v>156</v>
       </c>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4">
         <v>109</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="3">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
         <v>10</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>158</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4">
         <v>100</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4">
         <v>1.2</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>160</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4">
         <v>109</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4">
         <v>462</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4">
         <v>2022</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4">
         <v>70</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4">
         <v>38.25</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4">
         <v>39</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4">
         <v>26.5</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4">
         <v>27</v>
       </c>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3">
-        <v>0</v>
-      </c>
-      <c r="V4" s="3">
-        <v>0</v>
-      </c>
-      <c r="W4" s="3">
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
         <v>7.65</v>
       </c>
-      <c r="X4" s="3">
+      <c r="X4">
         <v>7</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="Y4">
         <v>7.35</v>
       </c>
-      <c r="Z4" s="3">
-        <v>2</v>
-      </c>
-      <c r="AA4" s="3" t="s">
+      <c r="Z4">
+        <v>2</v>
+      </c>
+      <c r="AA4" t="s">
         <v>161</v>
       </c>
-      <c r="AB4" s="3">
+      <c r="AB4">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5">
         <v>108</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>162</v>
       </c>
-      <c r="C5" s="3">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
         <v>10</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" t="s">
         <v>163</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5">
         <v>100</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5">
         <v>4</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" t="s">
         <v>164</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5">
         <v>108</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5">
         <v>420</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5">
         <v>2022</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5">
         <v>35</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5">
         <v>37.75</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5">
         <v>38</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5">
         <v>26</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5">
         <v>26.5</v>
       </c>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3">
-        <v>0</v>
-      </c>
-      <c r="V5" s="3">
-        <v>0</v>
-      </c>
-      <c r="W5" s="3">
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
         <v>7.55</v>
       </c>
-      <c r="X5" s="3">
+      <c r="X5">
         <v>6.85</v>
       </c>
-      <c r="Y5" s="3">
+      <c r="Y5">
         <v>7.22</v>
       </c>
-      <c r="Z5" s="3">
-        <v>2</v>
-      </c>
-      <c r="AA5" s="3" t="s">
+      <c r="Z5">
+        <v>2</v>
+      </c>
+      <c r="AA5" t="s">
         <v>165</v>
       </c>
-      <c r="AB5" s="3">
+      <c r="AB5">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6">
         <v>30</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>166</v>
       </c>
-      <c r="C6" s="3">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
         <v>10</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" t="s">
         <v>167</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6">
         <v>100</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6">
         <v>4.5</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" t="s">
         <v>168</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6">
         <v>30</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6">
         <v>129</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6">
         <v>2022</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6">
         <v>35</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6">
         <v>34</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6">
         <v>34.5</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="Q6" t="s">
         <v>159</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="R6" t="s">
         <v>159</v>
       </c>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3">
-        <v>0</v>
-      </c>
-      <c r="V6" s="3">
-        <v>0</v>
-      </c>
-      <c r="W6" s="3">
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
         <v>6.8</v>
       </c>
-      <c r="X6" s="3">
+      <c r="X6">
         <v>5.6</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="Y6">
         <v>6.25</v>
       </c>
-      <c r="Z6" s="3">
-        <v>2</v>
-      </c>
-      <c r="AA6" s="3" t="s">
+      <c r="Z6">
+        <v>2</v>
+      </c>
+      <c r="AA6" t="s">
         <v>169</v>
       </c>
-      <c r="AB6" s="3">
+      <c r="AB6">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7">
         <v>55</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="3">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
         <v>10</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" t="s">
         <v>171</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7">
         <v>100</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" t="s">
         <v>172</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7">
         <v>55</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7">
         <v>216</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7">
         <v>2022</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7">
         <v>35</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" t="s">
         <v>32</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7">
         <v>36.25</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7">
         <v>37.25</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="Q7" t="s">
         <v>159</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="R7" t="s">
         <v>159</v>
       </c>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3">
-        <v>0</v>
-      </c>
-      <c r="V7" s="3">
-        <v>0</v>
-      </c>
-      <c r="W7" s="3">
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
         <v>7.25</v>
       </c>
-      <c r="X7" s="3">
+      <c r="X7">
         <v>6.75</v>
       </c>
-      <c r="Y7" s="3">
+      <c r="Y7">
         <v>7</v>
       </c>
-      <c r="Z7" s="3">
-        <v>2</v>
-      </c>
-      <c r="AA7" s="3" t="s">
+      <c r="Z7">
+        <v>2</v>
+      </c>
+      <c r="AA7" t="s">
         <v>173</v>
       </c>
-      <c r="AB7" s="3">
+      <c r="AB7">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8">
         <v>63</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>174</v>
       </c>
-      <c r="C8" s="3">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
         <v>10</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" t="s">
         <v>175</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8">
         <v>100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8">
         <v>7.1</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" t="s">
         <v>176</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8">
         <v>63</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8">
         <v>261</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8">
         <v>2022</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8">
         <v>35</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="N8" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8">
         <v>35.5</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8">
         <v>35.5</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="Q8" t="s">
         <v>159</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="R8" t="s">
         <v>159</v>
       </c>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
-      <c r="W8" s="3">
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
         <v>7.1</v>
       </c>
-      <c r="X8" s="3">
+      <c r="X8">
         <v>6.55</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Y8">
         <v>6.77</v>
       </c>
-      <c r="Z8" s="3">
-        <v>2</v>
-      </c>
-      <c r="AA8" s="3" t="s">
+      <c r="Z8">
+        <v>2</v>
+      </c>
+      <c r="AA8" t="s">
         <v>177</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AB8">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9">
         <v>3</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="3">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
         <v>10</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" t="s">
         <v>179</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9">
         <v>100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9">
         <v>14.5</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" t="s">
         <v>180</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9">
         <v>3</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9">
         <v>24</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9">
         <v>2022</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9">
         <v>35</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" t="s">
         <v>32</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9">
         <v>33.25</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9">
         <v>34.25</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="Q9" t="s">
         <v>159</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="R9" t="s">
         <v>159</v>
       </c>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
-      <c r="V9" s="3">
-        <v>0</v>
-      </c>
-      <c r="W9" s="3">
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
         <v>6.65</v>
       </c>
-      <c r="X9" s="3">
+      <c r="X9">
         <v>5.95</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Y9">
         <v>6.2</v>
       </c>
-      <c r="Z9" s="3">
-        <v>2</v>
-      </c>
-      <c r="AA9" s="3" t="s">
+      <c r="Z9">
+        <v>2</v>
+      </c>
+      <c r="AA9" t="s">
         <v>181</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AB9">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:R1"/>
+    <mergeCell ref="S1:S3"/>
     <mergeCell ref="AA1:AA3"/>
     <mergeCell ref="AB1:AB3"/>
     <mergeCell ref="I2:I3"/>
@@ -4964,17 +4963,7 @@
     <mergeCell ref="X1:X3"/>
     <mergeCell ref="Y1:Y3"/>
     <mergeCell ref="Z1:Z3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:R1"/>
-    <mergeCell ref="S1:S3"/>
     <mergeCell ref="T1:T3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5000,842 +4989,820 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1" t="s">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="4" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="A4">
         <v>109</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="4">
-        <v>2</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
         <v>10</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" t="s">
         <v>158</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4">
         <v>100</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4">
         <v>1.2</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" t="s">
         <v>160</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4">
         <v>109</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4">
         <v>468</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4">
         <v>2022</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4">
         <v>70</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4">
         <v>34.5</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4">
         <v>35</v>
       </c>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4">
-        <v>0</v>
-      </c>
-      <c r="T4" s="4">
-        <v>0</v>
-      </c>
-      <c r="U4" s="4">
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
         <v>8.6199999999999992</v>
       </c>
-      <c r="V4" s="4">
+      <c r="V4">
         <v>8.25</v>
       </c>
-      <c r="W4" s="4">
+      <c r="W4">
         <v>8.4700000000000006</v>
       </c>
-      <c r="X4" s="4">
+      <c r="X4">
         <v>3</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="Y4" t="s">
         <v>161</v>
       </c>
-      <c r="Z4" s="4">
+      <c r="Z4">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="A5">
         <v>16</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="4">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
         <v>10</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5">
         <v>100</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" t="s">
         <v>64</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5">
         <v>16</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5">
         <v>72</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5">
         <v>2022</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5">
         <v>70</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5">
         <v>32</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5">
         <v>32.25</v>
       </c>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4">
-        <v>0</v>
-      </c>
-      <c r="T5" s="4">
-        <v>0</v>
-      </c>
-      <c r="U5" s="4">
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
         <v>8</v>
       </c>
-      <c r="V5" s="4">
+      <c r="V5">
         <v>6.2</v>
       </c>
-      <c r="W5" s="4">
+      <c r="W5">
         <v>7.1</v>
       </c>
-      <c r="X5" s="4">
+      <c r="X5">
         <v>3</v>
       </c>
-      <c r="Y5" s="4" t="s">
+      <c r="Y5" t="s">
         <v>65</v>
       </c>
-      <c r="Z5" s="4">
+      <c r="Z5">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="4">
-        <v>2</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
         <v>10</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6">
         <v>100</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6">
         <v>2.4</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6">
         <v>6</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6">
         <v>2022</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6">
         <v>105</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6">
         <v>29.5</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6">
         <v>29.75</v>
       </c>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4">
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
         <v>7.38</v>
       </c>
-      <c r="V6" s="4">
+      <c r="V6">
         <v>5.2</v>
       </c>
-      <c r="W6" s="4">
+      <c r="W6">
         <v>6.23</v>
       </c>
-      <c r="X6" s="4">
+      <c r="X6">
         <v>3</v>
       </c>
-      <c r="Y6" s="4" t="s">
+      <c r="Y6" t="s">
         <v>69</v>
       </c>
-      <c r="Z6" s="4">
+      <c r="Z6">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="A7">
         <v>21</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="4">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
         <v>10</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7">
         <v>100</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7">
         <v>2.9</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" t="s">
         <v>93</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7">
         <v>21</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7">
         <v>87</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7">
         <v>2022</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7">
         <v>35</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" t="s">
         <v>32</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7">
         <v>32.25</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7">
         <v>33.25</v>
       </c>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4">
-        <v>0</v>
-      </c>
-      <c r="T7" s="4">
-        <v>0</v>
-      </c>
-      <c r="U7" s="4">
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
         <v>8.06</v>
       </c>
-      <c r="V7" s="4">
+      <c r="V7">
         <v>6.7</v>
       </c>
-      <c r="W7" s="4">
+      <c r="W7">
         <v>7.38</v>
       </c>
-      <c r="X7" s="4">
+      <c r="X7">
         <v>3</v>
       </c>
-      <c r="Y7" s="4" t="s">
+      <c r="Y7" t="s">
         <v>94</v>
       </c>
-      <c r="Z7" s="4">
+      <c r="Z7">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="A8">
         <v>108</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>162</v>
       </c>
-      <c r="C8" s="4">
-        <v>2</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
         <v>10</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" t="s">
         <v>163</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8">
         <v>100</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8">
         <v>4</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" t="s">
         <v>164</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8">
         <v>108</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8">
         <v>426</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8">
         <v>2022</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8">
         <v>105</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8">
         <v>34.25</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8">
         <v>34.5</v>
       </c>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4">
-        <v>0</v>
-      </c>
-      <c r="T8" s="4">
-        <v>0</v>
-      </c>
-      <c r="U8" s="4">
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
         <v>8.56</v>
       </c>
-      <c r="V8" s="4">
+      <c r="V8">
         <v>8.1</v>
       </c>
-      <c r="W8" s="4">
+      <c r="W8">
         <v>8.3000000000000007</v>
       </c>
-      <c r="X8" s="4">
+      <c r="X8">
         <v>3</v>
       </c>
-      <c r="Y8" s="4" t="s">
+      <c r="Y8" t="s">
         <v>165</v>
       </c>
-      <c r="Z8" s="4">
+      <c r="Z8">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="A9">
         <v>55</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s">
         <v>170</v>
       </c>
-      <c r="C9" s="4">
-        <v>2</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
         <v>10</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" t="s">
         <v>171</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9">
         <v>98</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" t="s">
         <v>172</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9">
         <v>55</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9">
         <v>222</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9">
         <v>2022</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9">
         <v>105</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N9" t="s">
         <v>32</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9">
         <v>31</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9">
         <v>31</v>
       </c>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4">
-        <v>0</v>
-      </c>
-      <c r="T9" s="4">
-        <v>0</v>
-      </c>
-      <c r="U9" s="4">
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
         <v>7.75</v>
       </c>
-      <c r="V9" s="4">
+      <c r="V9">
         <v>5.6</v>
       </c>
-      <c r="W9" s="4">
+      <c r="W9">
         <v>6.52</v>
       </c>
-      <c r="X9" s="4">
+      <c r="X9">
         <v>3</v>
       </c>
-      <c r="Y9" s="4" t="s">
+      <c r="Y9" t="s">
         <v>173</v>
       </c>
-      <c r="Z9" s="4">
+      <c r="Z9">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="A10">
         <v>68</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>152</v>
       </c>
-      <c r="C10" s="4">
-        <v>2</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
         <v>10</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" t="s">
         <v>153</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10">
         <v>92</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10">
         <v>6.1</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" t="s">
         <v>154</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10">
         <v>68</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10">
         <v>285</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10">
         <v>2022</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" t="s">
         <v>31</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10">
         <v>105</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="N10" t="s">
         <v>32</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10">
         <v>29.5</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10">
         <v>30</v>
       </c>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4">
-        <v>0</v>
-      </c>
-      <c r="T10" s="4">
-        <v>0</v>
-      </c>
-      <c r="U10" s="4">
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
         <v>7.38</v>
       </c>
-      <c r="V10" s="4">
+      <c r="V10">
         <v>4</v>
       </c>
-      <c r="W10" s="4">
+      <c r="W10">
         <v>5.26</v>
       </c>
-      <c r="X10" s="4">
+      <c r="X10">
         <v>3</v>
       </c>
-      <c r="Y10" s="4" t="s">
+      <c r="Y10" t="s">
         <v>155</v>
       </c>
-      <c r="Z10" s="4">
+      <c r="Z10">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="A11">
         <v>63</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="4">
-        <v>2</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
         <v>10</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" t="s">
         <v>175</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11">
         <v>100</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11">
         <v>7.1</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" t="s">
         <v>176</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11">
         <v>63</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11">
         <v>267</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11">
         <v>2022</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" t="s">
         <v>31</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11">
         <v>105</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="N11" t="s">
         <v>32</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11">
         <v>31.25</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11">
         <v>31.5</v>
       </c>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4">
-        <v>0</v>
-      </c>
-      <c r="T11" s="4">
-        <v>0</v>
-      </c>
-      <c r="U11" s="4">
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
         <v>7.8100000000000005</v>
       </c>
-      <c r="V11" s="4">
+      <c r="V11">
         <v>7</v>
       </c>
-      <c r="W11" s="4">
+      <c r="W11">
         <v>7.34</v>
       </c>
-      <c r="X11" s="4">
+      <c r="X11">
         <v>3</v>
       </c>
-      <c r="Y11" s="4" t="s">
+      <c r="Y11" t="s">
         <v>177</v>
       </c>
-      <c r="Z11" s="4">
+      <c r="Z11">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="A12">
         <v>3</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" t="s">
         <v>178</v>
       </c>
-      <c r="C12" s="4">
-        <v>2</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
         <v>10</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" t="s">
         <v>179</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12">
         <v>100</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12">
         <v>14.5</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" t="s">
         <v>180</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12">
         <v>3</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12">
         <v>30</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12">
         <v>2022</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" t="s">
         <v>31</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12">
         <v>70</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="N12" t="s">
         <v>32</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12">
         <v>26.5</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12">
         <v>26.75</v>
       </c>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4">
-        <v>0</v>
-      </c>
-      <c r="T12" s="4">
-        <v>0</v>
-      </c>
-      <c r="U12" s="4">
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
         <v>6.62</v>
       </c>
-      <c r="V12" s="4">
+      <c r="V12">
         <v>4.8</v>
       </c>
-      <c r="W12" s="4">
+      <c r="W12">
         <v>5.71</v>
       </c>
-      <c r="X12" s="4">
+      <c r="X12">
         <v>3</v>
       </c>
-      <c r="Y12" s="4" t="s">
+      <c r="Y12" t="s">
         <v>181</v>
       </c>
-      <c r="Z12" s="4">
+      <c r="Z12">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="Z1:Z3"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:X3"/>
     <mergeCell ref="Q1:Q3"/>
     <mergeCell ref="R1:R3"/>
     <mergeCell ref="S1:S3"/>
@@ -5844,13 +5811,17 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
-    <mergeCell ref="Y1:Y3"/>
-    <mergeCell ref="Z1:Z3"/>
-    <mergeCell ref="T1:T3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="V1:V3"/>
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5860,61 +5831,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3E9D1D-7468-4015-944B-4DBA3923072B}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>183</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" t="s">
         <v>184</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
         <v>185</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" t="s">
         <v>186</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>189</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
+      <c r="F2" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" t="s">
         <v>191</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>193</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
+      <c r="F3" t="s">
         <v>194</v>
       </c>
     </row>

--- a/ts910/data.xlsx
+++ b/ts910/data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\STUDY\C#\LT\ts910\ts910\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oanhhh\c#\ts910\ts910\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86279A85-DAA3-40EE-91F4-CCB59CD381BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Trường thường" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="194">
   <si>
     <t>highschoolid</t>
   </si>
@@ -620,31 +619,28 @@
     <t>MẬT KHẨU</t>
   </si>
   <si>
+    <t>SỐ ĐIỆN THOẠI</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>lan</t>
-  </si>
-  <si>
-    <t>lan2205</t>
+    <t>hoangoanh</t>
+  </si>
+  <si>
+    <t>oanh@gm.com</t>
   </si>
   <si>
     <t>123</t>
+  </si>
+  <si>
+    <t>12bc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.#"/>
   </numFmts>
@@ -687,10 +683,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1005,7 +1001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7EFDBE-1BAF-4FC3-98AE-9C145D90626F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1042,130 +1038,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2" t="s">
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
       <c r="O3" t="s">
         <v>15</v>
       </c>
@@ -1175,16 +1171,16 @@
       <c r="Q3" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -3607,10 +3603,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA24856-5F79-46EF-A6F1-45B40B96516B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -3627,132 +3623,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2" t="s">
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
       <c r="O3" t="s">
         <v>15</v>
       </c>
@@ -3765,16 +3761,16 @@
       <c r="R3" t="s">
         <v>156</v>
       </c>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -3849,7 +3845,7 @@
       <c r="Z4">
         <v>2</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AA4" s="2" t="s">
         <v>161</v>
       </c>
       <c r="AB4">
@@ -4286,14 +4282,14 @@
     <mergeCell ref="E1:E3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="AA4" r:id="rId1" xr:uid="{D334F06D-47DD-4266-A1AE-4470382530DD}"/>
+    <hyperlink ref="AA4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B140F43-8AF7-4427-8710-A095BAD2D5C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4307,132 +4303,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2" t="s">
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
       <c r="O3" t="s">
         <v>15</v>
       </c>
@@ -4445,16 +4441,16 @@
       <c r="R3" t="s">
         <v>156</v>
       </c>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -4970,7 +4966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF43877-1FF0-4D57-A333-9DBE4174D065}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4989,144 +4985,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2" t="s">
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
       <c r="O3" t="s">
         <v>15</v>
       </c>
       <c r="P3" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -5828,16 +5824,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3E9D1D-7468-4015-944B-4DBA3923072B}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>182</v>
       </c>
@@ -5848,41 +5847,36 @@
         <v>184</v>
       </c>
       <c r="D1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" t="s">
         <v>185</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>186</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
         <v>191</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D2" t="s">
         <v>192</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E2" t="s">
         <v>193</v>
       </c>
-      <c r="F3" t="s">
-        <v>194</v>
+      <c r="G2" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/ts910/data.xlsx
+++ b/ts910/data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oanhhh\c#\ts910\ts910\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\STUDY\C#\LT\ts910\ts910\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E882ABEA-E274-4CC7-821C-1A264E331444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
+    <workbookView xWindow="3855" yWindow="3270" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trường thường" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="196">
   <si>
     <t>highschoolid</t>
   </si>
@@ -635,12 +636,18 @@
   </si>
   <si>
     <t>12bc</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>lan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.#"/>
   </numFmts>
@@ -1001,7 +1008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3571,11 +3578,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="Z1:Z3"/>
+    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="R1:R3"/>
+    <mergeCell ref="S1:S3"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="V1:V3"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="G1:G3"/>
     <mergeCell ref="H1:H3"/>
@@ -3587,32 +3599,27 @@
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R1:R3"/>
-    <mergeCell ref="S1:S3"/>
-    <mergeCell ref="T1:T3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="V1:V3"/>
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="X1:X3"/>
-    <mergeCell ref="Y1:Y3"/>
-    <mergeCell ref="Z1:Z3"/>
-    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F10" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="28.85546875" customWidth="1"/>
@@ -4254,13 +4261,17 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AA1:AA3"/>
-    <mergeCell ref="AB1:AB3"/>
-    <mergeCell ref="V1:V3"/>
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="X1:X3"/>
-    <mergeCell ref="Y1:Y3"/>
-    <mergeCell ref="Z1:Z3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="I1:R1"/>
     <mergeCell ref="S1:S3"/>
     <mergeCell ref="T1:T3"/>
     <mergeCell ref="U1:U3"/>
@@ -4269,30 +4280,26 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="I1:R1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="AB1:AB3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="Z1:Z3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="AA4" r:id="rId1"/>
+    <hyperlink ref="AA4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
@@ -4934,16 +4941,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:R1"/>
-    <mergeCell ref="S1:S3"/>
     <mergeCell ref="AA1:AA3"/>
     <mergeCell ref="AB1:AB3"/>
     <mergeCell ref="I2:I3"/>
@@ -4960,13 +4957,23 @@
     <mergeCell ref="Y1:Y3"/>
     <mergeCell ref="Z1:Z3"/>
     <mergeCell ref="T1:T3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:R1"/>
+    <mergeCell ref="S1:S3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5792,13 +5799,17 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="Y1:Y3"/>
-    <mergeCell ref="Z1:Z3"/>
-    <mergeCell ref="T1:T3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="V1:V3"/>
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="I1:P1"/>
     <mergeCell ref="Q1:Q3"/>
     <mergeCell ref="R1:R3"/>
     <mergeCell ref="S1:S3"/>
@@ -5807,32 +5818,29 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="Z1:Z3"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:X3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5866,7 +5874,7 @@
       <c r="B2" t="s">
         <v>190</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>191</v>
       </c>
       <c r="D2" t="s">
@@ -5879,7 +5887,30 @@
         <v>192</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G3" t="s">
+        <v>192</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{1A7A8B47-41E8-4D54-86E3-460B11C9C068}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ts910/data.xlsx
+++ b/ts910/data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\STUDY\C#\LT\ts910\ts910\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oanhhh\c#\ts910\ts910\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E882ABEA-E274-4CC7-821C-1A264E331444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3270" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3855" yWindow="3270" windowWidth="21600" windowHeight="11385" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Trường thường" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="197">
   <si>
     <t>highschoolid</t>
   </si>
@@ -642,12 +641,15 @@
   </si>
   <si>
     <t>lan</t>
+  </si>
+  <si>
+    <t>Resources/user.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.#"/>
   </numFmts>
@@ -1008,7 +1010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3578,16 +3580,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="X1:X3"/>
-    <mergeCell ref="Y1:Y3"/>
-    <mergeCell ref="Z1:Z3"/>
-    <mergeCell ref="AA1:AA3"/>
-    <mergeCell ref="R1:R3"/>
-    <mergeCell ref="S1:S3"/>
-    <mergeCell ref="T1:T3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="G1:G3"/>
     <mergeCell ref="H1:H3"/>
@@ -3599,18 +3596,23 @@
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="R1:R3"/>
+    <mergeCell ref="S1:S3"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="Z1:Z3"/>
+    <mergeCell ref="AA1:AA3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB9"/>
   <sheetViews>
     <sheetView topLeftCell="F10" workbookViewId="0">
@@ -4261,17 +4263,13 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="I1:R1"/>
+    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="AB1:AB3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="Z1:Z3"/>
     <mergeCell ref="S1:S3"/>
     <mergeCell ref="T1:T3"/>
     <mergeCell ref="U1:U3"/>
@@ -4280,26 +4278,30 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
-    <mergeCell ref="AA1:AA3"/>
-    <mergeCell ref="AB1:AB3"/>
-    <mergeCell ref="V1:V3"/>
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="X1:X3"/>
-    <mergeCell ref="Y1:Y3"/>
-    <mergeCell ref="Z1:Z3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="I1:R1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="AA4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="AA4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
@@ -4941,6 +4943,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:R1"/>
+    <mergeCell ref="S1:S3"/>
     <mergeCell ref="AA1:AA3"/>
     <mergeCell ref="AB1:AB3"/>
     <mergeCell ref="I2:I3"/>
@@ -4957,23 +4969,13 @@
     <mergeCell ref="Y1:Y3"/>
     <mergeCell ref="Z1:Z3"/>
     <mergeCell ref="T1:T3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:R1"/>
-    <mergeCell ref="S1:S3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5799,17 +5801,13 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="Z1:Z3"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:X3"/>
     <mergeCell ref="Q1:Q3"/>
     <mergeCell ref="R1:R3"/>
     <mergeCell ref="S1:S3"/>
@@ -5818,24 +5816,28 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
-    <mergeCell ref="Y1:Y3"/>
-    <mergeCell ref="Z1:Z3"/>
-    <mergeCell ref="T1:T3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="V1:V3"/>
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5883,6 +5885,9 @@
       <c r="E2" t="s">
         <v>193</v>
       </c>
+      <c r="F2" t="s">
+        <v>196</v>
+      </c>
       <c r="G2" t="s">
         <v>192</v>
       </c>
@@ -5903,13 +5908,16 @@
       <c r="E3" t="s">
         <v>192</v>
       </c>
+      <c r="F3" t="s">
+        <v>196</v>
+      </c>
       <c r="G3" t="s">
         <v>192</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{1A7A8B47-41E8-4D54-86E3-460B11C9C068}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ts910/data.xlsx
+++ b/ts910/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3270" windowWidth="21600" windowHeight="11385" activeTab="4"/>
+    <workbookView xWindow="3855" yWindow="3270" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Trường thường" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="202">
   <si>
     <t>highschoolid</t>
   </si>
@@ -644,6 +644,21 @@
   </si>
   <si>
     <t>Resources/user.png</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>0a</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -3580,11 +3595,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="Z1:Z3"/>
+    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="R1:R3"/>
+    <mergeCell ref="S1:S3"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="V1:V3"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="G1:G3"/>
     <mergeCell ref="H1:H3"/>
@@ -3596,16 +3616,11 @@
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R1:R3"/>
-    <mergeCell ref="S1:S3"/>
-    <mergeCell ref="T1:T3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="V1:V3"/>
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="X1:X3"/>
-    <mergeCell ref="Y1:Y3"/>
-    <mergeCell ref="Z1:Z3"/>
-    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4263,13 +4278,17 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AA1:AA3"/>
-    <mergeCell ref="AB1:AB3"/>
-    <mergeCell ref="V1:V3"/>
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="X1:X3"/>
-    <mergeCell ref="Y1:Y3"/>
-    <mergeCell ref="Z1:Z3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="I1:R1"/>
     <mergeCell ref="S1:S3"/>
     <mergeCell ref="T1:T3"/>
     <mergeCell ref="U1:U3"/>
@@ -4278,17 +4297,13 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="I1:R1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="AB1:AB3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="Z1:Z3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AA4" r:id="rId1"/>
@@ -4943,16 +4958,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:R1"/>
-    <mergeCell ref="S1:S3"/>
     <mergeCell ref="AA1:AA3"/>
     <mergeCell ref="AB1:AB3"/>
     <mergeCell ref="I2:I3"/>
@@ -4969,6 +4974,16 @@
     <mergeCell ref="Y1:Y3"/>
     <mergeCell ref="Z1:Z3"/>
     <mergeCell ref="T1:T3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:R1"/>
+    <mergeCell ref="S1:S3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5801,13 +5816,17 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="Y1:Y3"/>
-    <mergeCell ref="Z1:Z3"/>
-    <mergeCell ref="T1:T3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="V1:V3"/>
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="I1:P1"/>
     <mergeCell ref="Q1:Q3"/>
     <mergeCell ref="R1:R3"/>
     <mergeCell ref="S1:S3"/>
@@ -5816,17 +5835,13 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="Z1:Z3"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:X3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5834,7 +5849,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
@@ -5915,6 +5930,29 @@
         <v>192</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" t="s">
+        <v>201</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>

--- a/ts910/data.xlsx
+++ b/ts910/data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="202">
   <si>
     <t>highschoolid</t>
   </si>
@@ -3595,16 +3595,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="X1:X3"/>
-    <mergeCell ref="Y1:Y3"/>
-    <mergeCell ref="Z1:Z3"/>
-    <mergeCell ref="AA1:AA3"/>
-    <mergeCell ref="R1:R3"/>
-    <mergeCell ref="S1:S3"/>
-    <mergeCell ref="T1:T3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="G1:G3"/>
     <mergeCell ref="H1:H3"/>
@@ -3616,11 +3611,16 @@
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="R1:R3"/>
+    <mergeCell ref="S1:S3"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="Z1:Z3"/>
+    <mergeCell ref="AA1:AA3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4278,17 +4278,13 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="I1:R1"/>
+    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="AB1:AB3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="Z1:Z3"/>
     <mergeCell ref="S1:S3"/>
     <mergeCell ref="T1:T3"/>
     <mergeCell ref="U1:U3"/>
@@ -4297,13 +4293,17 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
-    <mergeCell ref="AA1:AA3"/>
-    <mergeCell ref="AB1:AB3"/>
-    <mergeCell ref="V1:V3"/>
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="X1:X3"/>
-    <mergeCell ref="Y1:Y3"/>
-    <mergeCell ref="Z1:Z3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="I1:R1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AA4" r:id="rId1"/>
@@ -4958,6 +4958,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:R1"/>
+    <mergeCell ref="S1:S3"/>
     <mergeCell ref="AA1:AA3"/>
     <mergeCell ref="AB1:AB3"/>
     <mergeCell ref="I2:I3"/>
@@ -4974,16 +4984,6 @@
     <mergeCell ref="Y1:Y3"/>
     <mergeCell ref="Z1:Z3"/>
     <mergeCell ref="T1:T3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:R1"/>
-    <mergeCell ref="S1:S3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5816,17 +5816,13 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="Z1:Z3"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:X3"/>
     <mergeCell ref="Q1:Q3"/>
     <mergeCell ref="R1:R3"/>
     <mergeCell ref="S1:S3"/>
@@ -5835,13 +5831,17 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
-    <mergeCell ref="Y1:Y3"/>
-    <mergeCell ref="Z1:Z3"/>
-    <mergeCell ref="T1:T3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="V1:V3"/>
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5926,8 +5926,8 @@
       <c r="F3" t="s">
         <v>196</v>
       </c>
-      <c r="G3" t="s">
-        <v>192</v>
+      <c r="G3">
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">

--- a/ts910/data.xlsx
+++ b/ts910/data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="205">
   <si>
     <t>highschoolid</t>
   </si>
@@ -659,6 +659,15 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>123a</t>
+  </si>
+  <si>
+    <t>lannn</t>
+  </si>
+  <si>
+    <t>G:\Oanhhh\picture\pencil.png</t>
   </si>
 </sst>
 </file>
@@ -3595,11 +3604,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="Z1:Z3"/>
+    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="R1:R3"/>
+    <mergeCell ref="S1:S3"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="V1:V3"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="G1:G3"/>
     <mergeCell ref="H1:H3"/>
@@ -3611,16 +3625,11 @@
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R1:R3"/>
-    <mergeCell ref="S1:S3"/>
-    <mergeCell ref="T1:T3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="V1:V3"/>
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="X1:X3"/>
-    <mergeCell ref="Y1:Y3"/>
-    <mergeCell ref="Z1:Z3"/>
-    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4278,13 +4287,17 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AA1:AA3"/>
-    <mergeCell ref="AB1:AB3"/>
-    <mergeCell ref="V1:V3"/>
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="X1:X3"/>
-    <mergeCell ref="Y1:Y3"/>
-    <mergeCell ref="Z1:Z3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="I1:R1"/>
     <mergeCell ref="S1:S3"/>
     <mergeCell ref="T1:T3"/>
     <mergeCell ref="U1:U3"/>
@@ -4293,17 +4306,13 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="I1:R1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="AB1:AB3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="Z1:Z3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AA4" r:id="rId1"/>
@@ -4958,16 +4967,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:R1"/>
-    <mergeCell ref="S1:S3"/>
     <mergeCell ref="AA1:AA3"/>
     <mergeCell ref="AB1:AB3"/>
     <mergeCell ref="I2:I3"/>
@@ -4984,6 +4983,16 @@
     <mergeCell ref="Y1:Y3"/>
     <mergeCell ref="Z1:Z3"/>
     <mergeCell ref="T1:T3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:R1"/>
+    <mergeCell ref="S1:S3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5816,13 +5825,17 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="Y1:Y3"/>
-    <mergeCell ref="Z1:Z3"/>
-    <mergeCell ref="T1:T3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="V1:V3"/>
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="I1:P1"/>
     <mergeCell ref="Q1:Q3"/>
     <mergeCell ref="R1:R3"/>
     <mergeCell ref="S1:S3"/>
@@ -5831,17 +5844,13 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="Z1:Z3"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:X3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5912,22 +5921,22 @@
         <v>194</v>
       </c>
       <c r="B3" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C3" t="s">
         <v>195</v>
       </c>
-      <c r="D3" t="s">
-        <v>192</v>
+      <c r="D3">
+        <v>123</v>
       </c>
       <c r="E3" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="F3" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="G3">
-        <v>123</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">

--- a/ts910/data.xlsx
+++ b/ts910/data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oanhhh\c#\ts910\ts910\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\STUDY\C#\LT\ts910\ts910\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C71D5F-3ACC-48EF-8078-FC8D7DCE3E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3270" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trường thường" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="204">
   <si>
     <t>highschoolid</t>
   </si>
@@ -665,15 +666,12 @@
   </si>
   <si>
     <t>lannn</t>
-  </si>
-  <si>
-    <t>G:\Oanhhh\picture\pencil.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.#"/>
   </numFmts>
@@ -1034,7 +1032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3604,16 +3602,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="X1:X3"/>
-    <mergeCell ref="Y1:Y3"/>
-    <mergeCell ref="Z1:Z3"/>
-    <mergeCell ref="AA1:AA3"/>
-    <mergeCell ref="R1:R3"/>
-    <mergeCell ref="S1:S3"/>
-    <mergeCell ref="T1:T3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="G1:G3"/>
     <mergeCell ref="H1:H3"/>
@@ -3625,18 +3618,23 @@
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="R1:R3"/>
+    <mergeCell ref="S1:S3"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="Z1:Z3"/>
+    <mergeCell ref="AA1:AA3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB9"/>
   <sheetViews>
     <sheetView topLeftCell="F10" workbookViewId="0">
@@ -4287,17 +4285,13 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="I1:R1"/>
+    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="AB1:AB3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="Z1:Z3"/>
     <mergeCell ref="S1:S3"/>
     <mergeCell ref="T1:T3"/>
     <mergeCell ref="U1:U3"/>
@@ -4306,23 +4300,27 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
-    <mergeCell ref="AA1:AA3"/>
-    <mergeCell ref="AB1:AB3"/>
-    <mergeCell ref="V1:V3"/>
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="X1:X3"/>
-    <mergeCell ref="Y1:Y3"/>
-    <mergeCell ref="Z1:Z3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="I1:R1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="AA4" r:id="rId1"/>
+    <hyperlink ref="AA4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB9"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -4967,6 +4965,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:R1"/>
+    <mergeCell ref="S1:S3"/>
     <mergeCell ref="AA1:AA3"/>
     <mergeCell ref="AB1:AB3"/>
     <mergeCell ref="I2:I3"/>
@@ -4983,23 +4991,13 @@
     <mergeCell ref="Y1:Y3"/>
     <mergeCell ref="Z1:Z3"/>
     <mergeCell ref="T1:T3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:R1"/>
-    <mergeCell ref="S1:S3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5825,17 +5823,13 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="Z1:Z3"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:X3"/>
     <mergeCell ref="Q1:Q3"/>
     <mergeCell ref="R1:R3"/>
     <mergeCell ref="S1:S3"/>
@@ -5844,24 +5838,28 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
-    <mergeCell ref="Y1:Y3"/>
-    <mergeCell ref="Z1:Z3"/>
-    <mergeCell ref="T1:T3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="V1:V3"/>
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5933,7 +5931,7 @@
         <v>202</v>
       </c>
       <c r="F3" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -5964,7 +5962,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ts910/data.xlsx
+++ b/ts910/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\STUDY\C#\LT\ts910\ts910\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\c#\ts910\ts910\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C71D5F-3ACC-48EF-8078-FC8D7DCE3E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC8F984-9E20-42FF-BB7F-A9A314974CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1935" yWindow="1920" windowWidth="17250" windowHeight="8865" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trường thường" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="207">
   <si>
     <t>highschoolid</t>
   </si>
@@ -666,6 +666,15 @@
   </si>
   <si>
     <t>lannn</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>oanh</t>
+  </si>
+  <si>
+    <t>hoangoanh711@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -5856,7 +5865,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
@@ -5960,6 +5969,29 @@
         <v>201</v>
       </c>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G5">
+        <v>1234</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
